--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_8_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_8_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-78600.3544778119</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8732945.182477079</v>
+        <v>5665233.703931851</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33139445.582195</v>
+        <v>24201830.90142395</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3.129739874389781e-10</v>
+        <v>4398375.149090054</v>
       </c>
     </row>
     <row r="11">
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8845,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9082,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9176,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>65.20892354519972</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>98.17069248095632</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9319,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>79.25802099849831</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>79.55121249250526</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>87.8197306940173</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9638,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9793,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9889,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10443,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10504,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -10525,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10598,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10838,13 +10840,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10978,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>85.78632439852493</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>65.20892354519972</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>98.17069248095632</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11215,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>79.25802099849831</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>79.55121249250526</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>87.8197306940173</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>97.38162427947184</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>83.42355640483248</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11309,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>35.5625862733917</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>72.86822951172195</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>114.085400487321</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>81.18949827734528</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>67.52371566667536</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>67.17903279110968</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>55.89865382137701</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>76.66374565676749</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22568,31 +22570,31 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J2" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K2" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L2" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M2" t="n">
-        <v>281.0224045372727</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>279.8839375878409</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P2" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q2" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R2" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S2" t="n">
         <v>236.785106778059</v>
@@ -22644,34 +22646,34 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I3" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J3" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K3" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>173.9674182222222</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R3" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S3" t="n">
         <v>195.63287444794</v>
@@ -22726,28 +22728,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J4" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K4" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M4" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N4" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O4" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P4" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q4" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R4" t="n">
         <v>211.6331360021768</v>
@@ -22881,34 +22883,34 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I6" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J6" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K6" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>173.9674182222222</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R6" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S6" t="n">
         <v>195.63287444794</v>
@@ -22963,28 +22965,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J7" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K7" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L7" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M7" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N7" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O7" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P7" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q7" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R7" t="n">
         <v>211.6331360021768</v>
@@ -23042,31 +23044,31 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J8" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K8" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L8" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M8" t="n">
-        <v>281.0224045372727</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>279.8839375878409</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P8" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q8" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R8" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S8" t="n">
         <v>236.785106778059</v>
@@ -23118,34 +23120,34 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K9" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>173.9674182222222</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
         <v>195.63287444794</v>
@@ -23200,28 +23202,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J10" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K10" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L10" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M10" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N10" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O10" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P10" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q10" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R10" t="n">
         <v>211.6331360021768</v>
@@ -23270,49 +23272,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>419.2448920946117</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H11" t="n">
-        <v>351.1867109187684</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I11" t="n">
-        <v>256.6898085504863</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J11" t="n">
-        <v>220.8760035225573</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K11" t="n">
-        <v>268.5096182748763</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>287.6350262633844</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>281.0224045372727</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N11" t="n">
-        <v>279.8839375878409</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>280.7198179344578</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>282.1042548214289</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>271.2129416468284</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>263.0143561332412</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S11" t="n">
-        <v>236.785106778059</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T11" t="n">
-        <v>224.246294399988</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U11" t="n">
-        <v>250.1830790232068</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23349,49 +23351,49 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.9622183950918</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H12" t="n">
-        <v>127.8372169228968</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I12" t="n">
-        <v>121.4173036</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J12" t="n">
-        <v>154.7419045333334</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K12" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>173.9674182222222</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P12" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>170.7777643849463</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>177.728994836036</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S12" t="n">
-        <v>195.63287444794</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T12" t="n">
-        <v>215.8480604164874</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U12" t="n">
-        <v>237.2423862021824</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23428,49 +23430,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.883215127945</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H13" t="n">
-        <v>167.4464568944399</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I13" t="n">
-        <v>170.3394424699794</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J13" t="n">
-        <v>154.9344141560632</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K13" t="n">
-        <v>157.3961749680531</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L13" t="n">
-        <v>164.5593050631107</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>169.4894564160782</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>155.7763642475845</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>168.9169769112482</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>168.0281649399601</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q13" t="n">
-        <v>184.8361019879239</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R13" t="n">
-        <v>211.6331360021768</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S13" t="n">
-        <v>238.6174795018098</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T13" t="n">
-        <v>224.541075671891</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23507,49 +23509,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>419.2448920946117</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H14" t="n">
-        <v>351.1867109187684</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I14" t="n">
-        <v>256.6898085504863</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J14" t="n">
-        <v>220.8760035225573</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K14" t="n">
-        <v>268.5096182748763</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>287.6350262633844</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>281.0224045372727</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N14" t="n">
-        <v>279.8839375878409</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O14" t="n">
-        <v>280.7198179344578</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>282.1042548214289</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>271.2129416468284</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>263.0143561332412</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S14" t="n">
-        <v>236.785106778059</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T14" t="n">
-        <v>224.246294399988</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U14" t="n">
-        <v>250.1830790232068</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23586,49 +23588,49 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.9622183950918</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H15" t="n">
-        <v>127.8372169228968</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I15" t="n">
-        <v>121.4173036</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J15" t="n">
-        <v>154.7419045333334</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K15" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>173.9674182222222</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P15" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>170.7777643849463</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>177.728994836036</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S15" t="n">
-        <v>195.63287444794</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T15" t="n">
-        <v>215.8480604164874</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U15" t="n">
-        <v>237.2423862021824</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23665,49 +23667,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.883215127945</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H16" t="n">
-        <v>167.4464568944399</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I16" t="n">
-        <v>170.3394424699794</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J16" t="n">
-        <v>154.9344141560632</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K16" t="n">
-        <v>157.3961749680531</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L16" t="n">
-        <v>164.5593050631107</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>169.4894564160782</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>155.7763642475845</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>168.9169769112482</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>168.0281649399601</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q16" t="n">
-        <v>184.8361019879239</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R16" t="n">
-        <v>211.6331360021768</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S16" t="n">
-        <v>238.6174795018098</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T16" t="n">
-        <v>224.541075671891</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23744,49 +23746,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>419.2448920946117</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H17" t="n">
-        <v>351.1867109187684</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I17" t="n">
-        <v>256.6898085504863</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J17" t="n">
-        <v>220.8760035225573</v>
+        <v>112.3155342172161</v>
       </c>
       <c r="K17" t="n">
-        <v>268.5096182748763</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>287.6350262633844</v>
+        <v>85.78632439852493</v>
       </c>
       <c r="M17" t="n">
-        <v>281.0224045372727</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N17" t="n">
-        <v>279.8839375878409</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O17" t="n">
-        <v>280.7198179344578</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>282.1042548214289</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>271.2129416468284</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>263.0143561332412</v>
+        <v>182.6672337308301</v>
       </c>
       <c r="S17" t="n">
-        <v>236.785106778059</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T17" t="n">
-        <v>224.246294399988</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1830790232068</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23823,49 +23825,49 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.9622183950918</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H18" t="n">
-        <v>127.8372169228968</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I18" t="n">
-        <v>121.4173036</v>
+        <v>97.85459557037962</v>
       </c>
       <c r="J18" t="n">
-        <v>154.7419045333334</v>
+        <v>90.08403272874064</v>
       </c>
       <c r="K18" t="n">
-        <v>168.166555548718</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L18" t="n">
-        <v>169.0363433314465</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M18" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>173.9674182222222</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P18" t="n">
-        <v>163.4487770454829</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q18" t="n">
-        <v>170.7777643849463</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R18" t="n">
-        <v>177.728994836036</v>
+        <v>135.2380782924301</v>
       </c>
       <c r="S18" t="n">
-        <v>195.63287444794</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T18" t="n">
-        <v>215.8480604164874</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2423862021824</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23902,49 +23904,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.883215127945</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H19" t="n">
-        <v>167.4464568944399</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I19" t="n">
-        <v>170.3394424699794</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J19" t="n">
-        <v>154.9344141560632</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K19" t="n">
-        <v>157.3961749680531</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L19" t="n">
-        <v>164.5593050631107</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>169.4894564160782</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>155.7763642475845</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>168.9169769112482</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>168.0281649399601</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q19" t="n">
-        <v>184.8361019879239</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R19" t="n">
-        <v>211.6331360021768</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S19" t="n">
-        <v>238.6174795018098</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T19" t="n">
-        <v>224.541075671891</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23981,49 +23983,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>419.2448920946117</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H20" t="n">
-        <v>351.1867109187684</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I20" t="n">
-        <v>256.6898085504863</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J20" t="n">
-        <v>220.8760035225573</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K20" t="n">
-        <v>268.5096182748763</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>287.6350262633844</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>281.0224045372727</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N20" t="n">
-        <v>279.8839375878409</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O20" t="n">
-        <v>280.7198179344578</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>282.1042548214289</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>271.2129416468284</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>263.0143561332412</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S20" t="n">
-        <v>236.785106778059</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T20" t="n">
-        <v>224.246294399988</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1830790232068</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24060,49 +24062,49 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.9622183950918</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H21" t="n">
-        <v>127.8372169228968</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I21" t="n">
-        <v>121.4173036</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J21" t="n">
-        <v>154.7419045333334</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K21" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>169.0363433314465</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M21" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>173.9674182222222</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P21" t="n">
-        <v>163.4487770454829</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q21" t="n">
-        <v>170.7777643849463</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>177.728994836036</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S21" t="n">
-        <v>195.63287444794</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T21" t="n">
-        <v>215.8480604164874</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2423862021824</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24139,49 +24141,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.883215127945</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H22" t="n">
-        <v>167.4464568944399</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I22" t="n">
-        <v>170.3394424699794</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J22" t="n">
-        <v>154.9344141560632</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K22" t="n">
-        <v>157.3961749680531</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L22" t="n">
-        <v>164.5593050631107</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>169.4894564160782</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>155.7763642475845</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>168.9169769112482</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>168.0281649399601</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q22" t="n">
-        <v>184.8361019879239</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R22" t="n">
-        <v>211.6331360021768</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S22" t="n">
-        <v>238.6174795018098</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T22" t="n">
-        <v>224.541075671891</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24218,49 +24220,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>419.2448920946117</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H23" t="n">
-        <v>351.1867109187684</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I23" t="n">
-        <v>256.6898085504863</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J23" t="n">
-        <v>220.8760035225573</v>
+        <v>112.3155342172161</v>
       </c>
       <c r="K23" t="n">
-        <v>268.5096182748763</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>287.6350262633844</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>281.0224045372727</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N23" t="n">
-        <v>279.8839375878409</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O23" t="n">
-        <v>280.7198179344578</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>282.1042548214289</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>271.2129416468284</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>263.0143561332412</v>
+        <v>182.6672337308301</v>
       </c>
       <c r="S23" t="n">
-        <v>236.785106778059</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T23" t="n">
-        <v>224.246294399988</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1830790232068</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24297,49 +24299,49 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.9622183950918</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H24" t="n">
-        <v>127.8372169228968</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I24" t="n">
-        <v>121.4173036</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J24" t="n">
-        <v>154.7419045333334</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K24" t="n">
-        <v>168.166555548718</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L24" t="n">
-        <v>169.0363433314465</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M24" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>173.9674182222222</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P24" t="n">
-        <v>163.4487770454829</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q24" t="n">
-        <v>170.7777643849463</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>177.728994836036</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S24" t="n">
-        <v>195.63287444794</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T24" t="n">
-        <v>215.8480604164874</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2423862021824</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24376,49 +24378,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.883215127945</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H25" t="n">
-        <v>167.4464568944399</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I25" t="n">
-        <v>170.3394424699794</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J25" t="n">
-        <v>154.9344141560632</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K25" t="n">
-        <v>157.3961749680531</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L25" t="n">
-        <v>164.5593050631107</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>169.4894564160782</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>155.7763642475845</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>168.9169769112482</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>168.0281649399601</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q25" t="n">
-        <v>184.8361019879239</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R25" t="n">
-        <v>211.6331360021768</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S25" t="n">
-        <v>238.6174795018098</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T25" t="n">
-        <v>224.541075671891</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24455,49 +24457,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>419.2448920946117</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H26" t="n">
-        <v>351.1867109187684</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I26" t="n">
-        <v>256.6898085504863</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J26" t="n">
-        <v>220.8760035225573</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K26" t="n">
-        <v>268.5096182748763</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>287.6350262633844</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>281.0224045372727</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N26" t="n">
-        <v>279.8839375878409</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O26" t="n">
-        <v>280.7198179344578</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>282.1042548214289</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>271.2129416468284</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>263.0143561332412</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S26" t="n">
-        <v>236.785106778059</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T26" t="n">
-        <v>224.246294399988</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U26" t="n">
-        <v>250.1830790232068</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24534,49 +24536,49 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.9622183950918</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H27" t="n">
-        <v>127.8372169228968</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I27" t="n">
-        <v>121.4173036</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J27" t="n">
-        <v>154.7419045333334</v>
+        <v>90.08403272874064</v>
       </c>
       <c r="K27" t="n">
-        <v>168.166555548718</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L27" t="n">
-        <v>169.0363433314465</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M27" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>173.9674182222222</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P27" t="n">
-        <v>163.4487770454829</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q27" t="n">
-        <v>170.7777643849463</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R27" t="n">
-        <v>177.728994836036</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S27" t="n">
-        <v>195.63287444794</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T27" t="n">
-        <v>215.8480604164874</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2423862021824</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24613,49 +24615,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.883215127945</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H28" t="n">
-        <v>167.4464568944399</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I28" t="n">
-        <v>170.3394424699794</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J28" t="n">
-        <v>154.9344141560632</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K28" t="n">
-        <v>157.3961749680531</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L28" t="n">
-        <v>164.5593050631107</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>169.4894564160782</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>155.7763642475845</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>168.9169769112482</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>168.0281649399601</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q28" t="n">
-        <v>184.8361019879239</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R28" t="n">
-        <v>211.6331360021768</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S28" t="n">
-        <v>238.6174795018098</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T28" t="n">
-        <v>224.541075671891</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24692,49 +24694,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>419.2448920946117</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H29" t="n">
-        <v>351.1867109187684</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I29" t="n">
-        <v>256.6898085504863</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J29" t="n">
-        <v>220.8760035225573</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K29" t="n">
-        <v>268.5096182748763</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>287.6350262633844</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>281.0224045372727</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N29" t="n">
-        <v>279.8839375878409</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O29" t="n">
-        <v>280.7198179344578</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>282.1042548214289</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q29" t="n">
-        <v>271.2129416468284</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>263.0143561332412</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S29" t="n">
-        <v>236.785106778059</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T29" t="n">
-        <v>224.246294399988</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U29" t="n">
-        <v>250.1830790232068</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24771,49 +24773,49 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.9622183950918</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H30" t="n">
-        <v>127.8372169228968</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I30" t="n">
-        <v>121.4173036</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J30" t="n">
-        <v>154.7419045333334</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K30" t="n">
-        <v>168.166555548718</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L30" t="n">
-        <v>169.0363433314465</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M30" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>173.9674182222222</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P30" t="n">
-        <v>163.4487770454829</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q30" t="n">
-        <v>170.7777643849463</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>177.728994836036</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S30" t="n">
-        <v>195.63287444794</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T30" t="n">
-        <v>215.8480604164874</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2423862021824</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24850,49 +24852,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.883215127945</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H31" t="n">
-        <v>167.4464568944399</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I31" t="n">
-        <v>170.3394424699794</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J31" t="n">
-        <v>154.9344141560632</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K31" t="n">
-        <v>157.3961749680531</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L31" t="n">
-        <v>164.5593050631107</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>169.4894564160782</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>155.7763642475845</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>168.9169769112482</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>168.0281649399601</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q31" t="n">
-        <v>184.8361019879239</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R31" t="n">
-        <v>211.6331360021768</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S31" t="n">
-        <v>238.6174795018098</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T31" t="n">
-        <v>224.541075671891</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24929,49 +24931,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>419.2448920946117</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H32" t="n">
-        <v>351.1867109187684</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I32" t="n">
-        <v>256.6898085504863</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J32" t="n">
-        <v>220.8760035225573</v>
+        <v>112.3155342172161</v>
       </c>
       <c r="K32" t="n">
-        <v>268.5096182748763</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>287.6350262633844</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M32" t="n">
-        <v>281.0224045372727</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N32" t="n">
-        <v>279.8839375878409</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O32" t="n">
-        <v>280.7198179344578</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>282.1042548214289</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>271.2129416468284</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R32" t="n">
-        <v>263.0143561332412</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S32" t="n">
-        <v>236.785106778059</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T32" t="n">
-        <v>224.246294399988</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U32" t="n">
-        <v>250.1830790232068</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25008,49 +25010,49 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.9622183950918</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H33" t="n">
-        <v>127.8372169228968</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I33" t="n">
-        <v>121.4173036</v>
+        <v>97.8545955703796</v>
       </c>
       <c r="J33" t="n">
-        <v>154.7419045333334</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K33" t="n">
-        <v>168.166555548718</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L33" t="n">
-        <v>169.0363433314465</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M33" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>173.9674182222222</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P33" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>170.7777643849463</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>177.728994836036</v>
+        <v>135.2380782924301</v>
       </c>
       <c r="S33" t="n">
-        <v>195.63287444794</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T33" t="n">
-        <v>215.8480604164874</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2423862021824</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25087,49 +25089,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.883215127945</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H34" t="n">
-        <v>167.4464568944399</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I34" t="n">
-        <v>170.3394424699794</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J34" t="n">
-        <v>154.9344141560632</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K34" t="n">
-        <v>157.3961749680531</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L34" t="n">
-        <v>164.5593050631107</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>169.4894564160782</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>155.7763642475845</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O34" t="n">
-        <v>168.9169769112482</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P34" t="n">
-        <v>168.0281649399601</v>
+        <v>98.63546081891306</v>
       </c>
       <c r="Q34" t="n">
-        <v>184.8361019879239</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R34" t="n">
-        <v>211.6331360021768</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S34" t="n">
-        <v>238.6174795018098</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T34" t="n">
-        <v>224.541075671891</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25166,49 +25168,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>419.2448920946117</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H35" t="n">
-        <v>351.1867109187684</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I35" t="n">
-        <v>256.6898085504863</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J35" t="n">
-        <v>220.8760035225573</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K35" t="n">
-        <v>268.5096182748763</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>287.6350262633844</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M35" t="n">
-        <v>281.0224045372727</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N35" t="n">
-        <v>279.8839375878409</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O35" t="n">
-        <v>280.7198179344578</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>282.1042548214289</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>271.2129416468284</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>263.0143561332412</v>
+        <v>182.6672337308301</v>
       </c>
       <c r="S35" t="n">
-        <v>236.785106778059</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T35" t="n">
-        <v>224.246294399988</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1830790232068</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25245,49 +25247,49 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.9622183950918</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H36" t="n">
-        <v>127.8372169228968</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I36" t="n">
-        <v>121.4173036</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J36" t="n">
-        <v>154.7419045333334</v>
+        <v>90.08403272874064</v>
       </c>
       <c r="K36" t="n">
-        <v>168.166555548718</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L36" t="n">
-        <v>169.0363433314465</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M36" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>173.9674182222222</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P36" t="n">
-        <v>163.4487770454829</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q36" t="n">
-        <v>170.7777643849463</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>177.728994836036</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S36" t="n">
-        <v>195.63287444794</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T36" t="n">
-        <v>215.8480604164874</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2423862021824</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25324,49 +25326,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.883215127945</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H37" t="n">
-        <v>167.4464568944399</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I37" t="n">
-        <v>170.3394424699794</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J37" t="n">
-        <v>154.9344141560632</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K37" t="n">
-        <v>157.3961749680531</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L37" t="n">
-        <v>164.5593050631107</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>169.4894564160782</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>155.7763642475845</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>168.9169769112482</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>168.0281649399601</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q37" t="n">
-        <v>184.8361019879239</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R37" t="n">
-        <v>211.6331360021768</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S37" t="n">
-        <v>238.6174795018098</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T37" t="n">
-        <v>224.541075671891</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25403,49 +25405,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>419.2448920946117</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H38" t="n">
-        <v>351.1867109187684</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I38" t="n">
-        <v>256.6898085504863</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J38" t="n">
-        <v>220.8760035225573</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K38" t="n">
-        <v>268.5096182748763</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>287.6350262633844</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M38" t="n">
-        <v>281.0224045372727</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N38" t="n">
-        <v>279.8839375878409</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O38" t="n">
-        <v>280.7198179344578</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P38" t="n">
-        <v>282.1042548214289</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>271.2129416468284</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>263.0143561332412</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S38" t="n">
-        <v>236.785106778059</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T38" t="n">
-        <v>224.246294399988</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1830790232068</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25482,49 +25484,49 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.9622183950918</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H39" t="n">
-        <v>127.8372169228968</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I39" t="n">
-        <v>121.4173036</v>
+        <v>97.8545955703796</v>
       </c>
       <c r="J39" t="n">
-        <v>154.7419045333334</v>
+        <v>90.08403272874064</v>
       </c>
       <c r="K39" t="n">
-        <v>168.166555548718</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L39" t="n">
-        <v>169.0363433314465</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M39" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>173.9674182222222</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P39" t="n">
-        <v>163.4487770454829</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q39" t="n">
-        <v>170.7777643849463</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R39" t="n">
-        <v>177.728994836036</v>
+        <v>135.2380782924301</v>
       </c>
       <c r="S39" t="n">
-        <v>195.63287444794</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T39" t="n">
-        <v>215.8480604164874</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2423862021824</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25561,49 +25563,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.883215127945</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H40" t="n">
-        <v>167.4464568944399</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I40" t="n">
-        <v>170.3394424699794</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J40" t="n">
-        <v>154.9344141560632</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K40" t="n">
-        <v>157.3961749680531</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L40" t="n">
-        <v>164.5593050631107</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>169.4894564160782</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>155.7763642475845</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>168.9169769112482</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>168.0281649399601</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q40" t="n">
-        <v>184.8361019879239</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R40" t="n">
-        <v>211.6331360021768</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S40" t="n">
-        <v>238.6174795018098</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T40" t="n">
-        <v>224.541075671891</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25640,49 +25642,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>419.2448920946117</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H41" t="n">
-        <v>351.1867109187684</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I41" t="n">
-        <v>256.6898085504863</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J41" t="n">
-        <v>220.8760035225573</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K41" t="n">
-        <v>268.5096182748763</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>287.6350262633844</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>281.0224045372727</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N41" t="n">
-        <v>279.8839375878409</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O41" t="n">
-        <v>280.7198179344578</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>282.1042548214289</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>271.2129416468284</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>263.0143561332412</v>
+        <v>182.6672337308301</v>
       </c>
       <c r="S41" t="n">
-        <v>236.785106778059</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T41" t="n">
-        <v>224.246294399988</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U41" t="n">
-        <v>250.1830790232068</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25719,49 +25721,49 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.9622183950918</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H42" t="n">
-        <v>127.8372169228968</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I42" t="n">
-        <v>121.4173036</v>
+        <v>97.85459557037962</v>
       </c>
       <c r="J42" t="n">
-        <v>154.7419045333334</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K42" t="n">
-        <v>168.166555548718</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L42" t="n">
-        <v>169.0363433314465</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M42" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>173.9674182222222</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P42" t="n">
-        <v>163.4487770454829</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q42" t="n">
-        <v>170.7777643849463</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R42" t="n">
-        <v>177.728994836036</v>
+        <v>135.2380782924301</v>
       </c>
       <c r="S42" t="n">
-        <v>195.63287444794</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T42" t="n">
-        <v>215.8480604164874</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2423862021824</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25798,49 +25800,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.883215127945</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H43" t="n">
-        <v>167.4464568944399</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I43" t="n">
-        <v>170.3394424699794</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J43" t="n">
-        <v>154.9344141560632</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K43" t="n">
-        <v>157.3961749680531</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L43" t="n">
-        <v>164.5593050631107</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>169.4894564160782</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>155.7763642475845</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>168.9169769112482</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>168.0281649399601</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q43" t="n">
-        <v>184.8361019879239</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R43" t="n">
-        <v>211.6331360021768</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S43" t="n">
-        <v>238.6174795018098</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T43" t="n">
-        <v>224.541075671891</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25877,49 +25879,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>419.2448920946117</v>
+        <v>417.7898558879744</v>
       </c>
       <c r="H44" t="n">
-        <v>351.1867109187684</v>
+        <v>336.2853213675438</v>
       </c>
       <c r="I44" t="n">
-        <v>256.6898085504863</v>
+        <v>200.5945251941005</v>
       </c>
       <c r="J44" t="n">
-        <v>220.8760035225573</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>268.5096182748763</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>287.6350262633844</v>
+        <v>58.01940008446331</v>
       </c>
       <c r="M44" t="n">
-        <v>281.0224045372727</v>
+        <v>25.53077821856496</v>
       </c>
       <c r="N44" t="n">
-        <v>279.8839375878409</v>
+        <v>20.25818964702478</v>
       </c>
       <c r="O44" t="n">
-        <v>280.7198179344578</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>282.1042548214289</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>271.2129416468284</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>263.0143561332412</v>
+        <v>129.0301979403661</v>
       </c>
       <c r="S44" t="n">
-        <v>236.785106778059</v>
+        <v>203.6284692193107</v>
       </c>
       <c r="T44" t="n">
-        <v>224.246294399988</v>
+        <v>217.8768734054331</v>
       </c>
       <c r="U44" t="n">
-        <v>250.1830790232068</v>
+        <v>250.0666761266758</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25956,49 +25958,49 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.9622183950918</v>
+        <v>148.1837053907575</v>
       </c>
       <c r="H45" t="n">
-        <v>127.8372169228968</v>
+        <v>120.3184202757733</v>
       </c>
       <c r="I45" t="n">
-        <v>121.4173036</v>
+        <v>88.05175328971565</v>
       </c>
       <c r="J45" t="n">
-        <v>154.7419045333334</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>168.166555548718</v>
+        <v>42.4537780023314</v>
       </c>
       <c r="L45" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>173.9674182222222</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>163.4487770454829</v>
+        <v>14.78693852483815</v>
       </c>
       <c r="Q45" t="n">
-        <v>170.7777643849463</v>
+        <v>71.40126228781628</v>
       </c>
       <c r="R45" t="n">
-        <v>177.728994836036</v>
+        <v>99.89485591515788</v>
       </c>
       <c r="S45" t="n">
-        <v>195.63287444794</v>
+        <v>181.1723368455023</v>
       </c>
       <c r="T45" t="n">
-        <v>215.8480604164874</v>
+        <v>212.7101066841048</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2423862021824</v>
+        <v>237.1911682413709</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26035,49 +26037,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.883215127945</v>
+        <v>168.2305359770579</v>
       </c>
       <c r="H46" t="n">
-        <v>167.4464568944399</v>
+        <v>161.6435458983708</v>
       </c>
       <c r="I46" t="n">
-        <v>170.3394424699794</v>
+        <v>150.711600368756</v>
       </c>
       <c r="J46" t="n">
-        <v>154.9344141560632</v>
+        <v>86.99371381121945</v>
       </c>
       <c r="K46" t="n">
-        <v>157.3961749680531</v>
+        <v>12.39676393728799</v>
       </c>
       <c r="L46" t="n">
-        <v>164.5593050631107</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>169.4894564160782</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>155.7763642475845</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>168.9169769112482</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>168.0281649399601</v>
+        <v>1.605335336077985</v>
       </c>
       <c r="Q46" t="n">
-        <v>184.8361019879239</v>
+        <v>87.84088624258442</v>
       </c>
       <c r="R46" t="n">
-        <v>211.6331360021768</v>
+        <v>182.2863079995616</v>
       </c>
       <c r="S46" t="n">
-        <v>238.6174795018098</v>
+        <v>227.2430619358953</v>
       </c>
       <c r="T46" t="n">
-        <v>224.541075671891</v>
+        <v>221.7523556635551</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6309075712877</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.706656232476234e-11</v>
+        <v>370195.2179534004</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.706656232476234e-11</v>
+        <v>121319.0411562415</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.706656232476234e-11</v>
+        <v>370195.2179534004</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.706656232476234e-11</v>
+        <v>442168.7910197443</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.706656232476234e-11</v>
+        <v>434973.3646504965</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.706656232476234e-11</v>
+        <v>378673.7433061067</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.706656232476234e-11</v>
+        <v>431025.5167701765</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.706656232476234e-11</v>
+        <v>405551.7176308219</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.706656232476234e-11</v>
+        <v>414495.122484712</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.706656232476234e-11</v>
+        <v>413072.2675148158</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.706656232476234e-11</v>
+        <v>370532.4255480094</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.706656232476234e-11</v>
+        <v>402802.7666210526</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.706656232476234e-11</v>
+        <v>390785.8676028517</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.706656232476234e-11</v>
+        <v>411950.1797234134</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.706656232476234e-11</v>
+        <v>428996.7804264836</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>42308.02490896005</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>13865.03327499902</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>42308.02490896005</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>54959.75950173507</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>54137.42505953534</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>47703.18262017652</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>53686.2424446416</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>50774.95111442966</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>51797.0545263028</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>51634.44252974324</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>46772.74630496539</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>50460.78528474172</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>49087.42539694734</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>51506.20392501154</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54007.87266054208</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>255620.0170480048</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>29131.36800400737</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>42308.02490896005</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>13865.03327499902</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>42308.02490896005</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>16230.65488129753</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>15408.32043909779</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>8974.077999738987</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>14957.13782420407</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12045.84649399213</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>13067.94990586527</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12905.33790930571</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>8043.641684527855</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>11731.68066430419</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>10358.32077650982</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>12777.09930457401</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>10435.76730728262</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>7890.297589542603</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-33627.59999999999</v>
       </c>
       <c r="C6" t="n">
         <v>-33627.6</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-33627.59999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-223827.0532829617</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>31792.96376504305</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>31792.96376504304</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>31792.96376504304</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>31792.96376504303</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>31792.96376504303</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>31792.96376504303</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>31792.96376504304</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>31792.96376504303</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>31792.96376504303</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>31792.96376504304</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>6550.439759709494</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>361.9402564010368</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>43.76865752972969</v>
       </c>
     </row>
     <row r="4">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>183.9335623404725</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>80.34712240241105</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>5.599180599232749</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.6843690994590379</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>42.4909165436059</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.5737520635384226</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>5.101177437641615</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>85.3012840646124</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>89.9382439235729</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>81.09724621723089</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>183.9335623404725</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>80.34712240241105</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>5.599180599232749</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.6843690994590379</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>42.4909165436059</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.5737520635384226</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>5.101177437641615</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>85.3012840646124</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>89.9382439235729</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>81.09724621723089</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.455036206637333</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>14.90138955122459</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>56.09528335638583</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>123.4943792430854</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>185.0860618700438</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>229.6156261789211</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>255.4916263187078</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>259.6257479408162</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>245.1572316610661</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>209.2360253097069</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>157.1275411595074</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>91.39991811518244</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>33.15663755874826</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6.369420994554928</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.1164028965309866</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.7785130043343056</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>7.518796647123428</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.80406615800132</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>73.55240625598807</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>125.7127775463865</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>148.6618385206447</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>99.37650209712999</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>48.33609688314225</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>14.46053760243764</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>3.137953732382573</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.0512179608114675</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.6526791508871155</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>5.802910996069087</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>19.62784210122345</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>46.14441596771907</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>75.82945043943032</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>97.03558939643536</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>102.3104236249685</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>99.87771042620749</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>92.2532312544807</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>78.93857657638347</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>54.65297871655656</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>29.34682800261521</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>11.37441756591454</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>2.788720008335857</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.03560068095747907</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_8_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_8_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-78600.3544778119</v>
+        <v>-210070.4131120829</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5665233.703931851</v>
+        <v>4868043.80222546</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24201830.90142395</v>
+        <v>23096809.53943248</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4398375.149090054</v>
+        <v>4991187.808101486</v>
       </c>
     </row>
     <row r="11">
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K11" t="n">
-        <v>105.8056161847214</v>
+        <v>94.67555438174873</v>
       </c>
       <c r="L11" t="n">
-        <v>85.7863243985249</v>
+        <v>71.97849854454967</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>41.06296488573628</v>
       </c>
       <c r="N11" t="n">
-        <v>51.65417350500871</v>
+        <v>36.04170333287217</v>
       </c>
       <c r="O11" t="n">
-        <v>65.2089235451997</v>
+        <v>50.46651067918276</v>
       </c>
       <c r="P11" t="n">
-        <v>98.17069248095629</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q11" t="n">
-        <v>133.0864964302902</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8771,10 +8771,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>57.65595408036968</v>
+        <v>50.09627633166347</v>
       </c>
       <c r="L12" t="n">
-        <v>20.44120180197424</v>
+        <v>10.27628214666009</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>32.7642952373794</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q12" t="n">
-        <v>83.41864916277152</v>
+        <v>77.44269074143502</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -8853,16 +8853,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>79.2580209984983</v>
+        <v>73.4228322427479</v>
       </c>
       <c r="M13" t="n">
-        <v>79.55121249250524</v>
+        <v>73.39882410340141</v>
       </c>
       <c r="N13" t="n">
-        <v>67.97665074265473</v>
+        <v>61.97055239817958</v>
       </c>
       <c r="O13" t="n">
-        <v>87.81973069401728</v>
+        <v>82.2721267577077</v>
       </c>
       <c r="P13" t="n">
         <v>87.48425302749862</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K14" t="n">
-        <v>105.8056161847214</v>
+        <v>94.67555438174873</v>
       </c>
       <c r="L14" t="n">
-        <v>85.7863243985249</v>
+        <v>71.97849854454967</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>41.06296488573628</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>36.04170333287217</v>
       </c>
       <c r="O14" t="n">
-        <v>65.2089235451997</v>
+        <v>50.46651067918276</v>
       </c>
       <c r="P14" t="n">
-        <v>98.17069248095629</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q14" t="n">
-        <v>133.0864964302902</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9008,10 +9008,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>57.65595408036968</v>
+        <v>50.09627633166347</v>
       </c>
       <c r="L15" t="n">
-        <v>20.44120180197424</v>
+        <v>10.27628214666009</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>32.7642952373794</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q15" t="n">
-        <v>83.41864916277152</v>
+        <v>77.44269074143502</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9090,16 +9090,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>79.2580209984983</v>
+        <v>73.4228322427479</v>
       </c>
       <c r="M16" t="n">
-        <v>79.55121249250524</v>
+        <v>73.39882410340141</v>
       </c>
       <c r="N16" t="n">
-        <v>67.97665074265473</v>
+        <v>61.97055239817958</v>
       </c>
       <c r="O16" t="n">
-        <v>87.81973069401728</v>
+        <v>82.2721267577077</v>
       </c>
       <c r="P16" t="n">
         <v>87.48425302749862</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K17" t="n">
-        <v>105.8056161847214</v>
+        <v>94.67555438174873</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>71.97849854454967</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>41.06296488573628</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>36.04170333287217</v>
       </c>
       <c r="O17" t="n">
-        <v>65.20892354519972</v>
+        <v>50.46651067918276</v>
       </c>
       <c r="P17" t="n">
-        <v>98.17069248095632</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q17" t="n">
-        <v>133.0864964302902</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>50.09627633166347</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>10.27628214666009</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>77.44269074143502</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9327,16 +9327,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>79.25802099849831</v>
+        <v>73.4228322427479</v>
       </c>
       <c r="M19" t="n">
-        <v>79.55121249250526</v>
+        <v>73.39882410340141</v>
       </c>
       <c r="N19" t="n">
-        <v>67.97665074265473</v>
+        <v>61.97055239817958</v>
       </c>
       <c r="O19" t="n">
-        <v>87.8197306940173</v>
+        <v>82.2721267577077</v>
       </c>
       <c r="P19" t="n">
         <v>87.48425302749862</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K20" t="n">
-        <v>105.8056161847214</v>
+        <v>94.67555438174873</v>
       </c>
       <c r="L20" t="n">
-        <v>85.7863243985249</v>
+        <v>71.97849854454967</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>41.06296488573628</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>36.04170333287217</v>
       </c>
       <c r="O20" t="n">
-        <v>65.2089235451997</v>
+        <v>50.46651067918276</v>
       </c>
       <c r="P20" t="n">
-        <v>98.17069248095629</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q20" t="n">
-        <v>133.0864964302902</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R20" t="n">
         <v>42.58424007769262</v>
@@ -9482,10 +9482,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>57.65595408036968</v>
+        <v>50.09627633166347</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>10.27628214666009</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q21" t="n">
-        <v>83.41864916277152</v>
+        <v>77.44269074143502</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9564,16 +9564,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>79.2580209984983</v>
+        <v>73.4228322427479</v>
       </c>
       <c r="M22" t="n">
-        <v>79.55121249250524</v>
+        <v>73.39882410340141</v>
       </c>
       <c r="N22" t="n">
-        <v>67.97665074265473</v>
+        <v>61.97055239817958</v>
       </c>
       <c r="O22" t="n">
-        <v>87.81973069401728</v>
+        <v>82.2721267577077</v>
       </c>
       <c r="P22" t="n">
         <v>87.48425302749862</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K23" t="n">
-        <v>105.8056161847214</v>
+        <v>94.67555438174873</v>
       </c>
       <c r="L23" t="n">
-        <v>85.7863243985249</v>
+        <v>71.97849854454967</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>41.06296488573628</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>36.04170333287217</v>
       </c>
       <c r="O23" t="n">
-        <v>65.2089235451997</v>
+        <v>50.46651067918276</v>
       </c>
       <c r="P23" t="n">
-        <v>98.17069248095629</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q23" t="n">
-        <v>133.0864964302902</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>50.09627633166347</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>10.27628214666009</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q24" t="n">
-        <v>83.41864916277152</v>
+        <v>77.44269074143502</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9801,16 +9801,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>79.2580209984983</v>
+        <v>73.4228322427479</v>
       </c>
       <c r="M25" t="n">
-        <v>79.55121249250524</v>
+        <v>73.39882410340141</v>
       </c>
       <c r="N25" t="n">
-        <v>67.97665074265473</v>
+        <v>61.97055239817958</v>
       </c>
       <c r="O25" t="n">
-        <v>87.81973069401728</v>
+        <v>82.2721267577077</v>
       </c>
       <c r="P25" t="n">
         <v>87.48425302749862</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K26" t="n">
-        <v>105.8056161847214</v>
+        <v>94.67555438174873</v>
       </c>
       <c r="L26" t="n">
-        <v>85.7863243985249</v>
+        <v>71.97849854454967</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>41.06296488573628</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>36.04170333287217</v>
       </c>
       <c r="O26" t="n">
-        <v>65.2089235451997</v>
+        <v>50.46651067918276</v>
       </c>
       <c r="P26" t="n">
-        <v>98.17069248095629</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q26" t="n">
-        <v>133.0864964302902</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R26" t="n">
         <v>42.58424007769262</v>
@@ -9953,13 +9953,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>50.09627633166347</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>10.27628214666009</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>77.44269074143502</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10038,16 +10038,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>79.2580209984983</v>
+        <v>73.4228322427479</v>
       </c>
       <c r="M28" t="n">
-        <v>79.55121249250524</v>
+        <v>73.39882410340141</v>
       </c>
       <c r="N28" t="n">
-        <v>67.97665074265473</v>
+        <v>61.97055239817958</v>
       </c>
       <c r="O28" t="n">
-        <v>87.81973069401728</v>
+        <v>82.2721267577077</v>
       </c>
       <c r="P28" t="n">
         <v>87.48425302749862</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K29" t="n">
-        <v>105.8056161847214</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L29" t="n">
-        <v>85.7863243985249</v>
+        <v>71.97849854454964</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>41.06296488573625</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O29" t="n">
-        <v>65.2089235451997</v>
+        <v>50.46651067918273</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q29" t="n">
-        <v>133.0864964302902</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R29" t="n">
         <v>42.58424007769262</v>
@@ -10193,10 +10193,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>50.09627633166346</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q30" t="n">
-        <v>83.41864916277152</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10275,16 +10275,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>79.2580209984983</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M31" t="n">
-        <v>79.55121249250524</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N31" t="n">
-        <v>67.97665074265473</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O31" t="n">
-        <v>87.81973069401728</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P31" t="n">
         <v>87.48425302749862</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K32" t="n">
-        <v>105.8056161847214</v>
+        <v>94.67555438174873</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>71.97849854454967</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>41.06296488573628</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>36.04170333287217</v>
       </c>
       <c r="O32" t="n">
-        <v>65.2089235451997</v>
+        <v>50.46651067918276</v>
       </c>
       <c r="P32" t="n">
-        <v>98.17069248095629</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R32" t="n">
         <v>42.58424007769262</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>50.09627633166347</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>10.27628214666009</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>32.7642952373794</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q33" t="n">
-        <v>83.41864916277152</v>
+        <v>77.44269074143502</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10512,19 +10512,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>79.2580209984983</v>
+        <v>73.4228322427479</v>
       </c>
       <c r="M34" t="n">
-        <v>79.55121249250524</v>
+        <v>73.39882410340141</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>61.97055239817958</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>82.2721267577077</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q34" t="n">
         <v>42.34223702878295</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K35" t="n">
-        <v>105.8056161847214</v>
+        <v>94.67555438174873</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>71.97849854454967</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>41.06296488573628</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>36.04170333287217</v>
       </c>
       <c r="O35" t="n">
-        <v>65.2089235451997</v>
+        <v>50.46651067918276</v>
       </c>
       <c r="P35" t="n">
-        <v>98.17069248095629</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q35" t="n">
-        <v>133.0864964302902</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>50.09627633166347</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>10.27628214666009</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q36" t="n">
-        <v>83.41864916277152</v>
+        <v>77.44269074143502</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10749,16 +10749,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>79.2580209984983</v>
+        <v>73.4228322427479</v>
       </c>
       <c r="M37" t="n">
-        <v>79.55121249250524</v>
+        <v>73.39882410340141</v>
       </c>
       <c r="N37" t="n">
-        <v>67.97665074265473</v>
+        <v>61.97055239817958</v>
       </c>
       <c r="O37" t="n">
-        <v>87.81973069401728</v>
+        <v>82.2721267577077</v>
       </c>
       <c r="P37" t="n">
         <v>87.48425302749862</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K38" t="n">
-        <v>105.8056161847214</v>
+        <v>94.67555438174873</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>71.97849854454967</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>41.06296488573628</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>36.04170333287217</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>50.46651067918276</v>
       </c>
       <c r="P38" t="n">
-        <v>98.17069248095629</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q38" t="n">
-        <v>133.0864964302902</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R38" t="n">
         <v>42.58424007769262</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>50.09627633166347</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>10.27628214666009</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>77.44269074143502</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,16 +10986,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>79.2580209984983</v>
+        <v>73.4228322427479</v>
       </c>
       <c r="M40" t="n">
-        <v>79.55121249250524</v>
+        <v>73.39882410340141</v>
       </c>
       <c r="N40" t="n">
-        <v>67.97665074265473</v>
+        <v>61.97055239817958</v>
       </c>
       <c r="O40" t="n">
-        <v>87.81973069401728</v>
+        <v>82.2721267577077</v>
       </c>
       <c r="P40" t="n">
         <v>87.48425302749862</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K41" t="n">
-        <v>105.8056161847214</v>
+        <v>94.67555438174873</v>
       </c>
       <c r="L41" t="n">
-        <v>85.78632439852493</v>
+        <v>71.97849854454967</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>41.06296488573628</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>36.04170333287217</v>
       </c>
       <c r="O41" t="n">
-        <v>65.20892354519972</v>
+        <v>50.46651067918276</v>
       </c>
       <c r="P41" t="n">
-        <v>98.17069248095632</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q41" t="n">
-        <v>133.0864964302902</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>50.09627633166347</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>10.27628214666009</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>77.44269074143502</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11223,16 +11223,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>79.25802099849831</v>
+        <v>73.4228322427479</v>
       </c>
       <c r="M43" t="n">
-        <v>79.55121249250526</v>
+        <v>73.39882410340141</v>
       </c>
       <c r="N43" t="n">
-        <v>67.97665074265473</v>
+        <v>61.97055239817958</v>
       </c>
       <c r="O43" t="n">
-        <v>87.8197306940173</v>
+        <v>82.2721267577077</v>
       </c>
       <c r="P43" t="n">
         <v>87.48425302749862</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>97.38162427947184</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K44" t="n">
-        <v>83.42355640483248</v>
+        <v>94.67555438174873</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>71.97849854454967</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>41.06296488573628</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>36.04170333287217</v>
       </c>
       <c r="O44" t="n">
-        <v>35.5625862733917</v>
+        <v>50.46651067918276</v>
       </c>
       <c r="P44" t="n">
-        <v>72.86822951172195</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q44" t="n">
-        <v>114.085400487321</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11375,13 +11375,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>81.18949827734528</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>50.09627633166347</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>10.27628214666009</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>77.44269074143502</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11460,16 +11460,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>67.52371566667536</v>
+        <v>73.4228322427479</v>
       </c>
       <c r="M46" t="n">
-        <v>67.17903279110968</v>
+        <v>73.39882410340141</v>
       </c>
       <c r="N46" t="n">
-        <v>55.89865382137701</v>
+        <v>61.97055239817958</v>
       </c>
       <c r="O46" t="n">
-        <v>76.66374565676749</v>
+        <v>82.2721267577077</v>
       </c>
       <c r="P46" t="n">
         <v>87.48425302749862</v>
@@ -22807,31 +22807,31 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J5" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K5" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L5" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M5" t="n">
-        <v>281.0224045372727</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>279.8839375878409</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P5" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q5" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R5" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S5" t="n">
         <v>236.785106778059</v>
@@ -23272,16 +23272,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.9658102901039</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H11" t="n">
-        <v>338.0873143883533</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I11" t="n">
-        <v>207.3780072822006</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J11" t="n">
-        <v>2.740927585712328</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23290,7 +23290,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>56.42683163149823</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>140.0829936531375</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S11" t="n">
-        <v>207.6380301578382</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T11" t="n">
-        <v>218.6471138007553</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23351,16 +23351,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.2778492956328</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H12" t="n">
-        <v>121.2276521991739</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I12" t="n">
-        <v>91.29311141809657</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J12" t="n">
-        <v>8.377041828155711</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23375,7 +23375,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>11.13860007154486</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>105.7400362546942</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S12" t="n">
-        <v>182.9210185873741</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T12" t="n">
-        <v>213.0895726866503</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23430,19 +23430,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.3094630644065</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H13" t="n">
-        <v>162.3452794567983</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I13" t="n">
-        <v>153.0851531410239</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J13" t="n">
-        <v>92.57385888677204</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K13" t="n">
-        <v>21.56665644925431</v>
+        <v>17.00668871668185</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,22 +23457,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>11.15120779141444</v>
+        <v>6.404274245706773</v>
       </c>
       <c r="Q13" t="n">
-        <v>94.44995352957361</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R13" t="n">
-        <v>185.8351568543492</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S13" t="n">
-        <v>228.6185458126902</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T13" t="n">
-        <v>222.0895895822268</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23509,16 +23509,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.9658102901039</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H14" t="n">
-        <v>338.0873143883533</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I14" t="n">
-        <v>207.3780072822006</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J14" t="n">
-        <v>2.740927585712328</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23527,10 +23527,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>56.42683163149823</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>51.65417350500871</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>140.0829936531375</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S14" t="n">
-        <v>207.6380301578382</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T14" t="n">
-        <v>218.6471138007553</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23588,16 +23588,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.2778492956328</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H15" t="n">
-        <v>121.2276521991739</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I15" t="n">
-        <v>91.29311141809657</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J15" t="n">
-        <v>8.377041828155711</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23612,7 +23612,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>11.13860007154486</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>105.7400362546942</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S15" t="n">
-        <v>182.9210185873741</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T15" t="n">
-        <v>213.0895726866503</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23667,19 +23667,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.3094630644065</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H16" t="n">
-        <v>162.3452794567983</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I16" t="n">
-        <v>153.0851531410239</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J16" t="n">
-        <v>92.57385888677204</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K16" t="n">
-        <v>21.56665644925431</v>
+        <v>17.00668871668185</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,22 +23694,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>11.15120779141444</v>
+        <v>6.404274245706773</v>
       </c>
       <c r="Q16" t="n">
-        <v>94.44995352957361</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R16" t="n">
-        <v>185.8351568543492</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S16" t="n">
-        <v>228.6185458126902</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T16" t="n">
-        <v>222.0895895822268</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23746,28 +23746,28 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.9658102901039</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H17" t="n">
-        <v>338.0873143883533</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I17" t="n">
-        <v>207.3780072822006</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J17" t="n">
-        <v>112.3155342172161</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>85.78632439852493</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>56.42683163149823</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>51.65417350500871</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>182.6672337308301</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S17" t="n">
-        <v>207.6380301578382</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T17" t="n">
-        <v>218.6471138007553</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23825,22 +23825,22 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.2778492956328</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H18" t="n">
-        <v>121.2276521991739</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I18" t="n">
-        <v>97.85459557037962</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J18" t="n">
-        <v>90.08403272874064</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K18" t="n">
-        <v>57.65595408036968</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>20.44120180197424</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -23849,25 +23849,25 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>11.13860007154486</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>32.7642952373794</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>83.41864916277152</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>135.2380782924301</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S18" t="n">
-        <v>182.9210185873741</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T18" t="n">
-        <v>213.0895726866503</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23904,19 +23904,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.3094630644065</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H19" t="n">
-        <v>162.3452794567983</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I19" t="n">
-        <v>153.0851531410239</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J19" t="n">
-        <v>92.57385888677204</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K19" t="n">
-        <v>21.56665644925431</v>
+        <v>17.00668871668185</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,22 +23931,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>11.15120779141444</v>
+        <v>6.404274245706773</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.44995352957361</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R19" t="n">
-        <v>185.8351568543492</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S19" t="n">
-        <v>228.6185458126902</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T19" t="n">
-        <v>222.0895895822268</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23983,16 +23983,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.9658102901039</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H20" t="n">
-        <v>338.0873143883533</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I20" t="n">
-        <v>207.3780072822006</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J20" t="n">
-        <v>2.740927585712328</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24001,10 +24001,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>56.42683163149823</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>51.65417350500871</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>140.0829936531375</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S20" t="n">
-        <v>207.6380301578382</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T20" t="n">
-        <v>218.6471138007553</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24062,22 +24062,22 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.2778492956328</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H21" t="n">
-        <v>121.2276521991739</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I21" t="n">
-        <v>91.29311141809657</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J21" t="n">
-        <v>8.377041828155711</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>20.44120180197424</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -24086,25 +24086,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>11.13860007154486</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>32.7642952373794</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>105.7400362546942</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S21" t="n">
-        <v>182.9210185873741</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T21" t="n">
-        <v>213.0895726866503</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24141,19 +24141,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.3094630644065</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H22" t="n">
-        <v>162.3452794567983</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I22" t="n">
-        <v>153.0851531410239</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J22" t="n">
-        <v>92.57385888677204</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K22" t="n">
-        <v>21.56665644925431</v>
+        <v>17.00668871668185</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,22 +24168,22 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>11.15120779141444</v>
+        <v>6.404274245706773</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.44995352957361</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R22" t="n">
-        <v>185.8351568543492</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S22" t="n">
-        <v>228.6185458126902</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T22" t="n">
-        <v>222.0895895822268</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24220,16 +24220,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>417.9658102901039</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H23" t="n">
-        <v>338.0873143883533</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I23" t="n">
-        <v>207.3780072822006</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J23" t="n">
-        <v>112.3155342172161</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24238,10 +24238,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>56.42683163149823</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>51.65417350500871</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>182.6672337308301</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S23" t="n">
-        <v>207.6380301578382</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T23" t="n">
-        <v>218.6471138007553</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24299,22 +24299,22 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.2778492956328</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H24" t="n">
-        <v>121.2276521991739</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I24" t="n">
-        <v>91.29311141809657</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J24" t="n">
-        <v>8.377041828155711</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K24" t="n">
-        <v>57.65595408036968</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>20.44120180197424</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -24323,25 +24323,25 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>11.13860007154486</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>32.7642952373794</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>105.7400362546942</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S24" t="n">
-        <v>182.9210185873741</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T24" t="n">
-        <v>213.0895726866503</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24378,19 +24378,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.3094630644065</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H25" t="n">
-        <v>162.3452794567983</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I25" t="n">
-        <v>153.0851531410239</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J25" t="n">
-        <v>92.57385888677204</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K25" t="n">
-        <v>21.56665644925431</v>
+        <v>17.00668871668185</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24405,22 +24405,22 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>11.15120779141444</v>
+        <v>6.404274245706773</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.44995352957361</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R25" t="n">
-        <v>185.8351568543492</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S25" t="n">
-        <v>228.6185458126902</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T25" t="n">
-        <v>222.0895895822268</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24457,16 +24457,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>417.9658102901039</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H26" t="n">
-        <v>338.0873143883533</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I26" t="n">
-        <v>207.3780072822006</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J26" t="n">
-        <v>2.740927585712328</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24475,10 +24475,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>56.42683163149823</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>51.65417350500871</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>140.0829936531375</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S26" t="n">
-        <v>207.6380301578382</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T26" t="n">
-        <v>218.6471138007553</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24536,22 +24536,22 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.2778492956328</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H27" t="n">
-        <v>121.2276521991739</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I27" t="n">
-        <v>91.29311141809657</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J27" t="n">
-        <v>90.08403272874064</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K27" t="n">
-        <v>57.65595408036968</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>20.44120180197424</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -24560,25 +24560,25 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>11.13860007154486</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>32.7642952373794</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>83.41864916277152</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>105.7400362546942</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S27" t="n">
-        <v>182.9210185873741</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T27" t="n">
-        <v>213.0895726866503</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24615,19 +24615,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.3094630644065</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H28" t="n">
-        <v>162.3452794567983</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I28" t="n">
-        <v>153.0851531410239</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J28" t="n">
-        <v>92.57385888677204</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K28" t="n">
-        <v>21.56665644925431</v>
+        <v>17.00668871668185</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24642,22 +24642,22 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>11.15120779141444</v>
+        <v>6.404274245706773</v>
       </c>
       <c r="Q28" t="n">
-        <v>94.44995352957361</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R28" t="n">
-        <v>185.8351568543492</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S28" t="n">
-        <v>228.6185458126902</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T28" t="n">
-        <v>222.0895895822268</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24694,16 +24694,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.9658102901039</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H29" t="n">
-        <v>338.0873143883533</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I29" t="n">
-        <v>207.3780072822006</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J29" t="n">
-        <v>2.740927585712328</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24712,31 +24712,31 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>56.42683163149823</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>51.65417350500871</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>98.17069248095629</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>140.0829936531375</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S29" t="n">
-        <v>207.6380301578382</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T29" t="n">
-        <v>218.6471138007553</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24773,22 +24773,22 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.2778492956328</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H30" t="n">
-        <v>121.2276521991739</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I30" t="n">
-        <v>91.29311141809657</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J30" t="n">
-        <v>8.377041828155711</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K30" t="n">
-        <v>57.65595408036968</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>20.44120180197424</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -24797,25 +24797,25 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>11.13860007154486</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>32.7642952373794</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>105.7400362546942</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S30" t="n">
-        <v>182.9210185873741</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T30" t="n">
-        <v>213.0895726866503</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24852,19 +24852,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.3094630644065</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H31" t="n">
-        <v>162.3452794567983</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I31" t="n">
-        <v>153.0851531410239</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J31" t="n">
-        <v>92.57385888677204</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K31" t="n">
-        <v>21.56665644925431</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24879,22 +24879,22 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>11.15120779141444</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.44995352957361</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R31" t="n">
-        <v>185.8351568543492</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S31" t="n">
-        <v>228.6185458126902</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T31" t="n">
-        <v>222.0895895822268</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24931,28 +24931,28 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.9658102901039</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H32" t="n">
-        <v>338.0873143883533</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I32" t="n">
-        <v>207.3780072822006</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J32" t="n">
-        <v>112.3155342172161</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>85.7863243985249</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>56.42683163149823</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>51.65417350500871</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -24961,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>133.0864964302902</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>140.0829936531375</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S32" t="n">
-        <v>207.6380301578382</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T32" t="n">
-        <v>218.6471138007553</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25010,22 +25010,22 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.2778492956328</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H33" t="n">
-        <v>121.2276521991739</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I33" t="n">
-        <v>97.8545955703796</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J33" t="n">
-        <v>8.377041828155711</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K33" t="n">
-        <v>57.65595408036968</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>20.44120180197424</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -25034,7 +25034,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>11.13860007154486</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>135.2380782924301</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S33" t="n">
-        <v>182.9210185873741</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T33" t="n">
-        <v>213.0895726866503</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25089,19 +25089,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.3094630644065</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H34" t="n">
-        <v>162.3452794567983</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I34" t="n">
-        <v>153.0851531410239</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J34" t="n">
-        <v>92.57385888677204</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K34" t="n">
-        <v>21.56665644925431</v>
+        <v>17.00668871668185</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25110,28 +25110,28 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>67.97665074265473</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>87.81973069401728</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>98.63546081891306</v>
+        <v>6.404274245706773</v>
       </c>
       <c r="Q34" t="n">
-        <v>94.44995352957361</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R34" t="n">
-        <v>185.8351568543492</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S34" t="n">
-        <v>228.6185458126902</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T34" t="n">
-        <v>222.0895895822268</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25168,28 +25168,28 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>417.9658102901039</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H35" t="n">
-        <v>338.0873143883533</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I35" t="n">
-        <v>207.3780072822006</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J35" t="n">
-        <v>2.740927585712328</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>85.7863243985249</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>56.42683163149823</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>51.65417350500871</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>182.6672337308301</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S35" t="n">
-        <v>207.6380301578382</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T35" t="n">
-        <v>218.6471138007553</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25247,22 +25247,22 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.2778492956328</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H36" t="n">
-        <v>121.2276521991739</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I36" t="n">
-        <v>91.29311141809657</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J36" t="n">
-        <v>90.08403272874064</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K36" t="n">
-        <v>57.65595408036968</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>20.44120180197424</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -25271,25 +25271,25 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>11.13860007154486</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>32.7642952373794</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>105.7400362546942</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S36" t="n">
-        <v>182.9210185873741</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T36" t="n">
-        <v>213.0895726866503</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25326,19 +25326,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.3094630644065</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H37" t="n">
-        <v>162.3452794567983</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I37" t="n">
-        <v>153.0851531410239</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J37" t="n">
-        <v>92.57385888677204</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K37" t="n">
-        <v>21.56665644925431</v>
+        <v>17.00668871668185</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25353,22 +25353,22 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>11.15120779141444</v>
+        <v>6.404274245706773</v>
       </c>
       <c r="Q37" t="n">
-        <v>94.44995352957361</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R37" t="n">
-        <v>185.8351568543492</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S37" t="n">
-        <v>228.6185458126902</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T37" t="n">
-        <v>222.0895895822268</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25405,31 +25405,31 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.9658102901039</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H38" t="n">
-        <v>338.0873143883533</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I38" t="n">
-        <v>207.3780072822006</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J38" t="n">
-        <v>2.740927585712328</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>85.7863243985249</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>56.42683163149823</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>51.65417350500871</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>65.2089235451997</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>140.0829936531375</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S38" t="n">
-        <v>207.6380301578382</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T38" t="n">
-        <v>218.6471138007553</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25484,22 +25484,22 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.2778492956328</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H39" t="n">
-        <v>121.2276521991739</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I39" t="n">
-        <v>97.8545955703796</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J39" t="n">
-        <v>90.08403272874064</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K39" t="n">
-        <v>57.65595408036968</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>20.44120180197424</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -25508,25 +25508,25 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>11.13860007154486</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>32.7642952373794</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>83.41864916277152</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>135.2380782924301</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S39" t="n">
-        <v>182.9210185873741</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T39" t="n">
-        <v>213.0895726866503</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25563,19 +25563,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.3094630644065</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H40" t="n">
-        <v>162.3452794567983</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I40" t="n">
-        <v>153.0851531410239</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J40" t="n">
-        <v>92.57385888677204</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K40" t="n">
-        <v>21.56665644925431</v>
+        <v>17.00668871668185</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25590,22 +25590,22 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>11.15120779141444</v>
+        <v>6.404274245706773</v>
       </c>
       <c r="Q40" t="n">
-        <v>94.44995352957361</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R40" t="n">
-        <v>185.8351568543492</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S40" t="n">
-        <v>228.6185458126902</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T40" t="n">
-        <v>222.0895895822268</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25642,16 +25642,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>417.9658102901039</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H41" t="n">
-        <v>338.0873143883533</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I41" t="n">
-        <v>207.3780072822006</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J41" t="n">
-        <v>2.740927585712328</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25660,10 +25660,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>56.42683163149823</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.65417350500871</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>182.6672337308301</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S41" t="n">
-        <v>207.6380301578382</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T41" t="n">
-        <v>218.6471138007553</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25721,22 +25721,22 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.2778492956328</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H42" t="n">
-        <v>121.2276521991739</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I42" t="n">
-        <v>97.85459557037962</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J42" t="n">
-        <v>8.377041828155711</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K42" t="n">
-        <v>57.65595408036968</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>20.44120180197424</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -25745,25 +25745,25 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>11.13860007154486</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>32.7642952373794</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>83.41864916277152</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>135.2380782924301</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S42" t="n">
-        <v>182.9210185873741</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T42" t="n">
-        <v>213.0895726866503</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25800,19 +25800,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.3094630644065</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H43" t="n">
-        <v>162.3452794567983</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I43" t="n">
-        <v>153.0851531410239</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J43" t="n">
-        <v>92.57385888677204</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K43" t="n">
-        <v>21.56665644925431</v>
+        <v>17.00668871668185</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25827,22 +25827,22 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>11.15120779141444</v>
+        <v>6.404274245706773</v>
       </c>
       <c r="Q43" t="n">
-        <v>94.44995352957361</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R43" t="n">
-        <v>185.8351568543492</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S43" t="n">
-        <v>228.6185458126902</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T43" t="n">
-        <v>222.0895895822268</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25879,13 +25879,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.7898558879744</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H44" t="n">
-        <v>336.2853213675438</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I44" t="n">
-        <v>200.5945251941005</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25894,13 +25894,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>58.01940008446331</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>25.53077821856496</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>20.25818964702478</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>129.0301979403661</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S44" t="n">
-        <v>203.6284692193107</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8768734054331</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0666761266758</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25958,19 +25958,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.1837053907575</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H45" t="n">
-        <v>120.3184202757733</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I45" t="n">
-        <v>88.05175328971565</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K45" t="n">
-        <v>42.4537780023314</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25985,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>14.78693852483815</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.40126228781628</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>99.89485591515788</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S45" t="n">
-        <v>181.1723368455023</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T45" t="n">
-        <v>212.7101066841048</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1911682413709</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26037,19 +26037,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.2305359770579</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H46" t="n">
-        <v>161.6435458983708</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I46" t="n">
-        <v>150.711600368756</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J46" t="n">
-        <v>86.99371381121945</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K46" t="n">
-        <v>12.39676393728799</v>
+        <v>17.00668871668185</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26064,22 +26064,22 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.605335336077985</v>
+        <v>6.404274245706773</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.84088624258442</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R46" t="n">
-        <v>182.2863079995616</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S46" t="n">
-        <v>227.2430619358953</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T46" t="n">
-        <v>221.7523556635551</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6309075712877</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>121319.0411562415</v>
+        <v>370195.2179534004</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>442168.7910197443</v>
+        <v>452086.733589394</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>434973.3646504965</v>
+        <v>452086.733589394</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>378673.7433061067</v>
+        <v>452086.733589394</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>431025.5167701765</v>
+        <v>452086.733589394</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>405551.7176308219</v>
+        <v>452086.733589394</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>414495.122484712</v>
+        <v>452086.733589394</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>413072.2675148158</v>
+        <v>452086.733589394</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>370532.4255480094</v>
+        <v>452086.733589394</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>402802.7666210526</v>
+        <v>452086.733589394</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>390785.8676028517</v>
+        <v>452086.733589394</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>411950.1797234134</v>
+        <v>452086.733589394</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>428996.7804264836</v>
+        <v>452086.733589394</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>42308.02490896005</v>
       </c>
       <c r="C2" t="n">
-        <v>13865.03327499902</v>
+        <v>42308.02490896006</v>
       </c>
       <c r="D2" t="n">
         <v>42308.02490896005</v>
       </c>
       <c r="E2" t="n">
-        <v>54959.75950173507</v>
+        <v>56373.9007245105</v>
       </c>
       <c r="F2" t="n">
-        <v>54137.42505953534</v>
+        <v>56373.9007245105</v>
       </c>
       <c r="G2" t="n">
-        <v>47703.18262017652</v>
+        <v>56373.90072451049</v>
       </c>
       <c r="H2" t="n">
-        <v>53686.2424446416</v>
+        <v>56373.9007245105</v>
       </c>
       <c r="I2" t="n">
-        <v>50774.95111442966</v>
+        <v>56373.9007245105</v>
       </c>
       <c r="J2" t="n">
-        <v>51797.0545263028</v>
+        <v>56373.90072451049</v>
       </c>
       <c r="K2" t="n">
-        <v>51634.44252974324</v>
+        <v>56373.90072451051</v>
       </c>
       <c r="L2" t="n">
-        <v>46772.74630496539</v>
+        <v>56373.9007245105</v>
       </c>
       <c r="M2" t="n">
-        <v>50460.78528474172</v>
+        <v>56373.9007245105</v>
       </c>
       <c r="N2" t="n">
-        <v>49087.42539694734</v>
+        <v>56373.9007245105</v>
       </c>
       <c r="O2" t="n">
-        <v>51506.20392501154</v>
+        <v>56373.9007245105</v>
       </c>
       <c r="P2" t="n">
-        <v>54007.87266054208</v>
+        <v>56373.90072451051</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>255620.0170480048</v>
+        <v>273106.1670582839</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>29131.36800400737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,46 +26420,46 @@
         <v>42308.02490896005</v>
       </c>
       <c r="C4" t="n">
-        <v>13865.03327499902</v>
+        <v>42308.02490896005</v>
       </c>
       <c r="D4" t="n">
         <v>42308.02490896005</v>
       </c>
       <c r="E4" t="n">
-        <v>16230.65488129753</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="F4" t="n">
-        <v>15408.32043909779</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="G4" t="n">
-        <v>8974.077999738987</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="H4" t="n">
-        <v>14957.13782420407</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="I4" t="n">
-        <v>12045.84649399213</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="J4" t="n">
-        <v>13067.94990586527</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="K4" t="n">
-        <v>12905.33790930571</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="L4" t="n">
-        <v>8043.641684527855</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="M4" t="n">
-        <v>11731.68066430419</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="N4" t="n">
-        <v>10358.32077650982</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="O4" t="n">
-        <v>12777.09930457401</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="P4" t="n">
-        <v>10435.76730728262</v>
+        <v>15189.00297443751</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>6936.140855394496</v>
+        <v>7410.620126973124</v>
       </c>
       <c r="F5" t="n">
-        <v>6936.140855394496</v>
+        <v>7410.620126973124</v>
       </c>
       <c r="G5" t="n">
-        <v>6936.140855394496</v>
+        <v>7410.620126973124</v>
       </c>
       <c r="H5" t="n">
-        <v>6936.140855394496</v>
+        <v>7410.620126973124</v>
       </c>
       <c r="I5" t="n">
-        <v>6936.140855394496</v>
+        <v>7410.620126973124</v>
       </c>
       <c r="J5" t="n">
-        <v>6936.140855394496</v>
+        <v>7410.620126973124</v>
       </c>
       <c r="K5" t="n">
-        <v>6936.140855394496</v>
+        <v>7410.620126973125</v>
       </c>
       <c r="L5" t="n">
-        <v>6936.140855394496</v>
+        <v>7410.620126973124</v>
       </c>
       <c r="M5" t="n">
-        <v>6936.140855394496</v>
+        <v>7410.620126973124</v>
       </c>
       <c r="N5" t="n">
-        <v>6936.140855394496</v>
+        <v>7410.620126973124</v>
       </c>
       <c r="O5" t="n">
-        <v>6936.140855394496</v>
+        <v>7410.620126973124</v>
       </c>
       <c r="P5" t="n">
-        <v>7890.297589542603</v>
+        <v>7410.620126973124</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.59999999999</v>
+        <v>-50432.06060784339</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-50432.06060784338</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.59999999999</v>
+        <v>-50432.06060784339</v>
       </c>
       <c r="E6" t="n">
-        <v>-223827.0532829617</v>
+        <v>-254378.1155660836</v>
       </c>
       <c r="F6" t="n">
-        <v>31792.96376504305</v>
+        <v>18728.05149220029</v>
       </c>
       <c r="G6" t="n">
-        <v>31792.96376504304</v>
+        <v>18728.05149220027</v>
       </c>
       <c r="H6" t="n">
-        <v>31792.96376504304</v>
+        <v>18728.05149220029</v>
       </c>
       <c r="I6" t="n">
-        <v>31792.96376504303</v>
+        <v>18728.05149220028</v>
       </c>
       <c r="J6" t="n">
-        <v>31792.96376504303</v>
+        <v>18728.05149220027</v>
       </c>
       <c r="K6" t="n">
-        <v>31792.96376504303</v>
+        <v>18728.05149220029</v>
       </c>
       <c r="L6" t="n">
-        <v>31792.96376504304</v>
+        <v>18728.05149220029</v>
       </c>
       <c r="M6" t="n">
-        <v>31792.96376504303</v>
+        <v>18728.05149220028</v>
       </c>
       <c r="N6" t="n">
-        <v>31792.96376504303</v>
+        <v>18728.05149220029</v>
       </c>
       <c r="O6" t="n">
-        <v>31792.96376504304</v>
+        <v>18728.05149220028</v>
       </c>
       <c r="P6" t="n">
-        <v>6550.439759709494</v>
+        <v>18728.05149220029</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>318.1715988713071</v>
+        <v>339.9367030721616</v>
       </c>
       <c r="F3" t="n">
-        <v>318.1715988713071</v>
+        <v>339.9367030721616</v>
       </c>
       <c r="G3" t="n">
-        <v>318.1715988713071</v>
+        <v>339.9367030721616</v>
       </c>
       <c r="H3" t="n">
-        <v>318.1715988713071</v>
+        <v>339.9367030721616</v>
       </c>
       <c r="I3" t="n">
-        <v>318.1715988713071</v>
+        <v>339.9367030721616</v>
       </c>
       <c r="J3" t="n">
-        <v>318.1715988713071</v>
+        <v>339.9367030721616</v>
       </c>
       <c r="K3" t="n">
-        <v>318.1715988713071</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="L3" t="n">
-        <v>318.1715988713071</v>
+        <v>339.9367030721616</v>
       </c>
       <c r="M3" t="n">
-        <v>318.1715988713071</v>
+        <v>339.9367030721616</v>
       </c>
       <c r="N3" t="n">
-        <v>318.1715988713071</v>
+        <v>339.9367030721616</v>
       </c>
       <c r="O3" t="n">
-        <v>318.1715988713071</v>
+        <v>339.9367030721616</v>
       </c>
       <c r="P3" t="n">
-        <v>361.9402564010368</v>
+        <v>339.9367030721616</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>318.1715988713071</v>
+        <v>339.9367030721616</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>43.76865752972969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.279081804507766</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H11" t="n">
-        <v>13.09939653041517</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I11" t="n">
-        <v>49.31180126828571</v>
+        <v>52.6850643022694</v>
       </c>
       <c r="J11" t="n">
-        <v>108.5604693053411</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K11" t="n">
-        <v>162.7040020901549</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L11" t="n">
-        <v>201.8487018648595</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M11" t="n">
-        <v>224.5955729057745</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N11" t="n">
-        <v>228.2297640828322</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O11" t="n">
-        <v>215.5108943892581</v>
+        <v>230.253307255275</v>
       </c>
       <c r="P11" t="n">
-        <v>183.9335623404726</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q11" t="n">
-        <v>138.1264452165381</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R11" t="n">
-        <v>80.34712240241106</v>
+        <v>85.84341276123286</v>
       </c>
       <c r="S11" t="n">
-        <v>29.14707662022075</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T11" t="n">
-        <v>5.59918059923275</v>
+        <v>5.982202684214621</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.684369099459038</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H12" t="n">
-        <v>6.609564723722816</v>
+        <v>7.061703963819811</v>
       </c>
       <c r="I12" t="n">
-        <v>23.56270802962039</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J12" t="n">
-        <v>64.65787180459272</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K12" t="n">
-        <v>110.5106014683483</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L12" t="n">
-        <v>148.5951415294723</v>
+        <v>158.7600611847864</v>
       </c>
       <c r="M12" t="n">
         <v>173.4035213848624</v>
@@ -31855,25 +31855,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O12" t="n">
-        <v>162.8288181506773</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P12" t="n">
-        <v>130.6844818081035</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.35911522217475</v>
+        <v>93.33507364351125</v>
       </c>
       <c r="R12" t="n">
-        <v>42.49091654360591</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S12" t="n">
-        <v>12.7118558605659</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T12" t="n">
-        <v>2.758487729837086</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04810425043473987</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H13" t="n">
-        <v>5.101177437641616</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I13" t="n">
-        <v>17.25428932895548</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J13" t="n">
-        <v>40.56427089216648</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K13" t="n">
-        <v>66.65955792746399</v>
+        <v>71.21952566003645</v>
       </c>
       <c r="L13" t="n">
-        <v>85.30128406461242</v>
+        <v>91.13647282036281</v>
       </c>
       <c r="M13" t="n">
-        <v>89.93824392357291</v>
+        <v>96.09063231267675</v>
       </c>
       <c r="N13" t="n">
-        <v>87.79971350492977</v>
+        <v>93.80581184940492</v>
       </c>
       <c r="O13" t="n">
-        <v>81.0972462172309</v>
+        <v>86.64485015354049</v>
       </c>
       <c r="P13" t="n">
-        <v>69.39270412104702</v>
+        <v>74.13963766675468</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.04391142956737</v>
+        <v>51.3304421638964</v>
       </c>
       <c r="R13" t="n">
-        <v>25.79797914782761</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S13" t="n">
-        <v>9.998933689119598</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T13" t="n">
-        <v>2.451486089664169</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03343639702349134</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.279081804507766</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H14" t="n">
-        <v>13.09939653041517</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I14" t="n">
-        <v>49.31180126828571</v>
+        <v>52.6850643022694</v>
       </c>
       <c r="J14" t="n">
-        <v>108.5604693053411</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K14" t="n">
-        <v>162.7040020901549</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L14" t="n">
-        <v>201.8487018648595</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M14" t="n">
-        <v>224.5955729057745</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N14" t="n">
-        <v>228.2297640828322</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O14" t="n">
-        <v>215.5108943892581</v>
+        <v>230.253307255275</v>
       </c>
       <c r="P14" t="n">
-        <v>183.9335623404726</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.1264452165381</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R14" t="n">
-        <v>80.34712240241106</v>
+        <v>85.84341276123286</v>
       </c>
       <c r="S14" t="n">
-        <v>29.14707662022075</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T14" t="n">
-        <v>5.59918059923275</v>
+        <v>5.982202684214621</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.684369099459038</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H15" t="n">
-        <v>6.609564723722816</v>
+        <v>7.061703963819811</v>
       </c>
       <c r="I15" t="n">
-        <v>23.56270802962039</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J15" t="n">
-        <v>64.65787180459272</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K15" t="n">
-        <v>110.5106014683483</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L15" t="n">
-        <v>148.5951415294723</v>
+        <v>158.7600611847864</v>
       </c>
       <c r="M15" t="n">
         <v>173.4035213848624</v>
@@ -32092,25 +32092,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O15" t="n">
-        <v>162.8288181506773</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P15" t="n">
-        <v>130.6844818081035</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.35911522217475</v>
+        <v>93.33507364351125</v>
       </c>
       <c r="R15" t="n">
-        <v>42.49091654360591</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S15" t="n">
-        <v>12.7118558605659</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T15" t="n">
-        <v>2.758487729837086</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04810425043473987</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H16" t="n">
-        <v>5.101177437641616</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I16" t="n">
-        <v>17.25428932895548</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J16" t="n">
-        <v>40.56427089216648</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K16" t="n">
-        <v>66.65955792746399</v>
+        <v>71.21952566003645</v>
       </c>
       <c r="L16" t="n">
-        <v>85.30128406461242</v>
+        <v>91.13647282036281</v>
       </c>
       <c r="M16" t="n">
-        <v>89.93824392357291</v>
+        <v>96.09063231267675</v>
       </c>
       <c r="N16" t="n">
-        <v>87.79971350492977</v>
+        <v>93.80581184940492</v>
       </c>
       <c r="O16" t="n">
-        <v>81.0972462172309</v>
+        <v>86.64485015354049</v>
       </c>
       <c r="P16" t="n">
-        <v>69.39270412104702</v>
+        <v>74.13963766675468</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.04391142956737</v>
+        <v>51.3304421638964</v>
       </c>
       <c r="R16" t="n">
-        <v>25.79797914782761</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S16" t="n">
-        <v>9.998933689119598</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T16" t="n">
-        <v>2.451486089664169</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03343639702349134</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.279081804507766</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H17" t="n">
-        <v>13.09939653041517</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I17" t="n">
-        <v>49.31180126828571</v>
+        <v>52.6850643022694</v>
       </c>
       <c r="J17" t="n">
-        <v>108.5604693053411</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K17" t="n">
-        <v>162.7040020901549</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L17" t="n">
-        <v>201.8487018648595</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M17" t="n">
-        <v>224.5955729057745</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N17" t="n">
-        <v>228.2297640828322</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O17" t="n">
-        <v>215.5108943892581</v>
+        <v>230.253307255275</v>
       </c>
       <c r="P17" t="n">
-        <v>183.9335623404725</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.1264452165381</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R17" t="n">
-        <v>80.34712240241105</v>
+        <v>85.84341276123286</v>
       </c>
       <c r="S17" t="n">
-        <v>29.14707662022075</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T17" t="n">
-        <v>5.599180599232749</v>
+        <v>5.982202684214621</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6843690994590379</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H18" t="n">
-        <v>6.609564723722816</v>
+        <v>7.061703963819811</v>
       </c>
       <c r="I18" t="n">
-        <v>23.56270802962039</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J18" t="n">
-        <v>64.65787180459272</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K18" t="n">
-        <v>110.5106014683483</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L18" t="n">
-        <v>148.5951415294723</v>
+        <v>158.7600611847864</v>
       </c>
       <c r="M18" t="n">
         <v>173.4035213848624</v>
@@ -32329,25 +32329,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O18" t="n">
-        <v>162.8288181506773</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P18" t="n">
-        <v>130.6844818081035</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.35911522217475</v>
+        <v>93.33507364351125</v>
       </c>
       <c r="R18" t="n">
-        <v>42.4909165436059</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S18" t="n">
-        <v>12.7118558605659</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T18" t="n">
-        <v>2.758487729837086</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04810425043473987</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5737520635384226</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H19" t="n">
-        <v>5.101177437641615</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I19" t="n">
-        <v>17.25428932895548</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J19" t="n">
-        <v>40.56427089216648</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K19" t="n">
-        <v>66.65955792746399</v>
+        <v>71.21952566003645</v>
       </c>
       <c r="L19" t="n">
-        <v>85.3012840646124</v>
+        <v>91.13647282036281</v>
       </c>
       <c r="M19" t="n">
-        <v>89.9382439235729</v>
+        <v>96.09063231267675</v>
       </c>
       <c r="N19" t="n">
-        <v>87.79971350492977</v>
+        <v>93.80581184940492</v>
       </c>
       <c r="O19" t="n">
-        <v>81.09724621723089</v>
+        <v>86.64485015354049</v>
       </c>
       <c r="P19" t="n">
-        <v>69.39270412104702</v>
+        <v>74.13963766675468</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.04391142956737</v>
+        <v>51.3304421638964</v>
       </c>
       <c r="R19" t="n">
-        <v>25.79797914782761</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S19" t="n">
-        <v>9.998933689119598</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T19" t="n">
-        <v>2.451486089664169</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03343639702349134</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.279081804507766</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H20" t="n">
-        <v>13.09939653041517</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I20" t="n">
-        <v>49.31180126828571</v>
+        <v>52.6850643022694</v>
       </c>
       <c r="J20" t="n">
-        <v>108.5604693053411</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K20" t="n">
-        <v>162.7040020901549</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L20" t="n">
-        <v>201.8487018648595</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M20" t="n">
-        <v>224.5955729057745</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N20" t="n">
-        <v>228.2297640828322</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O20" t="n">
-        <v>215.5108943892581</v>
+        <v>230.253307255275</v>
       </c>
       <c r="P20" t="n">
-        <v>183.9335623404726</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.1264452165381</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R20" t="n">
-        <v>80.34712240241106</v>
+        <v>85.84341276123286</v>
       </c>
       <c r="S20" t="n">
-        <v>29.14707662022075</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T20" t="n">
-        <v>5.59918059923275</v>
+        <v>5.982202684214621</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.684369099459038</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H21" t="n">
-        <v>6.609564723722816</v>
+        <v>7.061703963819811</v>
       </c>
       <c r="I21" t="n">
-        <v>23.56270802962039</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J21" t="n">
-        <v>64.65787180459272</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K21" t="n">
-        <v>110.5106014683483</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L21" t="n">
-        <v>148.5951415294723</v>
+        <v>158.7600611847864</v>
       </c>
       <c r="M21" t="n">
         <v>173.4035213848624</v>
@@ -32566,25 +32566,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O21" t="n">
-        <v>162.8288181506773</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P21" t="n">
-        <v>130.6844818081035</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.35911522217475</v>
+        <v>93.33507364351125</v>
       </c>
       <c r="R21" t="n">
-        <v>42.49091654360591</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S21" t="n">
-        <v>12.7118558605659</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T21" t="n">
-        <v>2.758487729837086</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04810425043473987</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H22" t="n">
-        <v>5.101177437641616</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I22" t="n">
-        <v>17.25428932895548</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J22" t="n">
-        <v>40.56427089216648</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K22" t="n">
-        <v>66.65955792746399</v>
+        <v>71.21952566003645</v>
       </c>
       <c r="L22" t="n">
-        <v>85.30128406461242</v>
+        <v>91.13647282036281</v>
       </c>
       <c r="M22" t="n">
-        <v>89.93824392357291</v>
+        <v>96.09063231267675</v>
       </c>
       <c r="N22" t="n">
-        <v>87.79971350492977</v>
+        <v>93.80581184940492</v>
       </c>
       <c r="O22" t="n">
-        <v>81.0972462172309</v>
+        <v>86.64485015354049</v>
       </c>
       <c r="P22" t="n">
-        <v>69.39270412104702</v>
+        <v>74.13963766675468</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.04391142956737</v>
+        <v>51.3304421638964</v>
       </c>
       <c r="R22" t="n">
-        <v>25.79797914782761</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S22" t="n">
-        <v>9.998933689119598</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T22" t="n">
-        <v>2.451486089664169</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03343639702349134</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.279081804507766</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H23" t="n">
-        <v>13.09939653041517</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I23" t="n">
-        <v>49.31180126828571</v>
+        <v>52.6850643022694</v>
       </c>
       <c r="J23" t="n">
-        <v>108.5604693053411</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K23" t="n">
-        <v>162.7040020901549</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L23" t="n">
-        <v>201.8487018648595</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M23" t="n">
-        <v>224.5955729057745</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N23" t="n">
-        <v>228.2297640828322</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O23" t="n">
-        <v>215.5108943892581</v>
+        <v>230.253307255275</v>
       </c>
       <c r="P23" t="n">
-        <v>183.9335623404726</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.1264452165381</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R23" t="n">
-        <v>80.34712240241106</v>
+        <v>85.84341276123286</v>
       </c>
       <c r="S23" t="n">
-        <v>29.14707662022075</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T23" t="n">
-        <v>5.59918059923275</v>
+        <v>5.982202684214621</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.684369099459038</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H24" t="n">
-        <v>6.609564723722816</v>
+        <v>7.061703963819811</v>
       </c>
       <c r="I24" t="n">
-        <v>23.56270802962039</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J24" t="n">
-        <v>64.65787180459272</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K24" t="n">
-        <v>110.5106014683483</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L24" t="n">
-        <v>148.5951415294723</v>
+        <v>158.7600611847864</v>
       </c>
       <c r="M24" t="n">
         <v>173.4035213848624</v>
@@ -32803,25 +32803,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O24" t="n">
-        <v>162.8288181506773</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P24" t="n">
-        <v>130.6844818081035</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.35911522217475</v>
+        <v>93.33507364351125</v>
       </c>
       <c r="R24" t="n">
-        <v>42.49091654360591</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S24" t="n">
-        <v>12.7118558605659</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T24" t="n">
-        <v>2.758487729837086</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04810425043473987</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H25" t="n">
-        <v>5.101177437641616</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I25" t="n">
-        <v>17.25428932895548</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J25" t="n">
-        <v>40.56427089216648</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K25" t="n">
-        <v>66.65955792746399</v>
+        <v>71.21952566003645</v>
       </c>
       <c r="L25" t="n">
-        <v>85.30128406461242</v>
+        <v>91.13647282036281</v>
       </c>
       <c r="M25" t="n">
-        <v>89.93824392357291</v>
+        <v>96.09063231267675</v>
       </c>
       <c r="N25" t="n">
-        <v>87.79971350492977</v>
+        <v>93.80581184940492</v>
       </c>
       <c r="O25" t="n">
-        <v>81.0972462172309</v>
+        <v>86.64485015354049</v>
       </c>
       <c r="P25" t="n">
-        <v>69.39270412104702</v>
+        <v>74.13963766675468</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.04391142956737</v>
+        <v>51.3304421638964</v>
       </c>
       <c r="R25" t="n">
-        <v>25.79797914782761</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S25" t="n">
-        <v>9.998933689119598</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T25" t="n">
-        <v>2.451486089664169</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03343639702349134</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.279081804507766</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H26" t="n">
-        <v>13.09939653041517</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I26" t="n">
-        <v>49.31180126828571</v>
+        <v>52.6850643022694</v>
       </c>
       <c r="J26" t="n">
-        <v>108.5604693053411</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K26" t="n">
-        <v>162.7040020901549</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L26" t="n">
-        <v>201.8487018648595</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M26" t="n">
-        <v>224.5955729057745</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N26" t="n">
-        <v>228.2297640828322</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O26" t="n">
-        <v>215.5108943892581</v>
+        <v>230.253307255275</v>
       </c>
       <c r="P26" t="n">
-        <v>183.9335623404726</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q26" t="n">
-        <v>138.1264452165381</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R26" t="n">
-        <v>80.34712240241106</v>
+        <v>85.84341276123286</v>
       </c>
       <c r="S26" t="n">
-        <v>29.14707662022075</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T26" t="n">
-        <v>5.59918059923275</v>
+        <v>5.982202684214621</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.684369099459038</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H27" t="n">
-        <v>6.609564723722816</v>
+        <v>7.061703963819811</v>
       </c>
       <c r="I27" t="n">
-        <v>23.56270802962039</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J27" t="n">
-        <v>64.65787180459272</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K27" t="n">
-        <v>110.5106014683483</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L27" t="n">
-        <v>148.5951415294723</v>
+        <v>158.7600611847864</v>
       </c>
       <c r="M27" t="n">
         <v>173.4035213848624</v>
@@ -33040,25 +33040,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O27" t="n">
-        <v>162.8288181506773</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P27" t="n">
-        <v>130.6844818081035</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.35911522217475</v>
+        <v>93.33507364351125</v>
       </c>
       <c r="R27" t="n">
-        <v>42.49091654360591</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S27" t="n">
-        <v>12.7118558605659</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T27" t="n">
-        <v>2.758487729837086</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04810425043473987</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H28" t="n">
-        <v>5.101177437641616</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I28" t="n">
-        <v>17.25428932895548</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J28" t="n">
-        <v>40.56427089216648</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K28" t="n">
-        <v>66.65955792746399</v>
+        <v>71.21952566003645</v>
       </c>
       <c r="L28" t="n">
-        <v>85.30128406461242</v>
+        <v>91.13647282036281</v>
       </c>
       <c r="M28" t="n">
-        <v>89.93824392357291</v>
+        <v>96.09063231267675</v>
       </c>
       <c r="N28" t="n">
-        <v>87.79971350492977</v>
+        <v>93.80581184940492</v>
       </c>
       <c r="O28" t="n">
-        <v>81.0972462172309</v>
+        <v>86.64485015354049</v>
       </c>
       <c r="P28" t="n">
-        <v>69.39270412104702</v>
+        <v>74.13963766675468</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.04391142956737</v>
+        <v>51.3304421638964</v>
       </c>
       <c r="R28" t="n">
-        <v>25.79797914782761</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S28" t="n">
-        <v>9.998933689119598</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T28" t="n">
-        <v>2.451486089664169</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03343639702349134</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.279081804507766</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H29" t="n">
-        <v>13.09939653041517</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I29" t="n">
-        <v>49.31180126828571</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J29" t="n">
-        <v>108.5604693053411</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K29" t="n">
-        <v>162.7040020901549</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L29" t="n">
-        <v>201.8487018648595</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M29" t="n">
-        <v>224.5955729057745</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N29" t="n">
-        <v>228.2297640828322</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O29" t="n">
-        <v>215.5108943892581</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P29" t="n">
-        <v>183.9335623404726</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q29" t="n">
-        <v>138.1264452165381</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R29" t="n">
-        <v>80.34712240241106</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S29" t="n">
-        <v>29.14707662022075</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T29" t="n">
-        <v>5.59918059923275</v>
+        <v>5.982202684214622</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.684369099459038</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H30" t="n">
-        <v>6.609564723722816</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I30" t="n">
-        <v>23.56270802962039</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J30" t="n">
-        <v>64.65787180459272</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K30" t="n">
-        <v>110.5106014683483</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L30" t="n">
-        <v>148.5951415294723</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M30" t="n">
         <v>173.4035213848624</v>
@@ -33277,25 +33277,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O30" t="n">
-        <v>162.8288181506773</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P30" t="n">
-        <v>130.6844818081035</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.35911522217475</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R30" t="n">
-        <v>42.49091654360591</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S30" t="n">
-        <v>12.7118558605659</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T30" t="n">
-        <v>2.758487729837086</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H31" t="n">
-        <v>5.101177437641616</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I31" t="n">
-        <v>17.25428932895548</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J31" t="n">
-        <v>40.56427089216648</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K31" t="n">
-        <v>66.65955792746399</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L31" t="n">
-        <v>85.30128406461242</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M31" t="n">
-        <v>89.93824392357291</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N31" t="n">
-        <v>87.79971350492977</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O31" t="n">
-        <v>81.0972462172309</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P31" t="n">
-        <v>69.39270412104702</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.04391142956737</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R31" t="n">
-        <v>25.79797914782761</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S31" t="n">
-        <v>9.998933689119598</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T31" t="n">
-        <v>2.451486089664169</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.279081804507766</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H32" t="n">
-        <v>13.09939653041517</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I32" t="n">
-        <v>49.31180126828571</v>
+        <v>52.6850643022694</v>
       </c>
       <c r="J32" t="n">
-        <v>108.5604693053411</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K32" t="n">
-        <v>162.7040020901549</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L32" t="n">
-        <v>201.8487018648595</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M32" t="n">
-        <v>224.5955729057745</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N32" t="n">
-        <v>228.2297640828322</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O32" t="n">
-        <v>215.5108943892581</v>
+        <v>230.253307255275</v>
       </c>
       <c r="P32" t="n">
-        <v>183.9335623404726</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q32" t="n">
-        <v>138.1264452165381</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R32" t="n">
-        <v>80.34712240241106</v>
+        <v>85.84341276123286</v>
       </c>
       <c r="S32" t="n">
-        <v>29.14707662022075</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T32" t="n">
-        <v>5.59918059923275</v>
+        <v>5.982202684214621</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.684369099459038</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H33" t="n">
-        <v>6.609564723722816</v>
+        <v>7.061703963819811</v>
       </c>
       <c r="I33" t="n">
-        <v>23.56270802962039</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J33" t="n">
-        <v>64.65787180459272</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K33" t="n">
-        <v>110.5106014683483</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L33" t="n">
-        <v>148.5951415294723</v>
+        <v>158.7600611847864</v>
       </c>
       <c r="M33" t="n">
         <v>173.4035213848624</v>
@@ -33514,25 +33514,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O33" t="n">
-        <v>162.8288181506773</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P33" t="n">
-        <v>130.6844818081035</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.35911522217475</v>
+        <v>93.33507364351125</v>
       </c>
       <c r="R33" t="n">
-        <v>42.49091654360591</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S33" t="n">
-        <v>12.7118558605659</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T33" t="n">
-        <v>2.758487729837086</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04810425043473987</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H34" t="n">
-        <v>5.101177437641616</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I34" t="n">
-        <v>17.25428932895548</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J34" t="n">
-        <v>40.56427089216648</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K34" t="n">
-        <v>66.65955792746399</v>
+        <v>71.21952566003645</v>
       </c>
       <c r="L34" t="n">
-        <v>85.30128406461242</v>
+        <v>91.13647282036281</v>
       </c>
       <c r="M34" t="n">
-        <v>89.93824392357291</v>
+        <v>96.09063231267675</v>
       </c>
       <c r="N34" t="n">
-        <v>87.79971350492977</v>
+        <v>93.80581184940492</v>
       </c>
       <c r="O34" t="n">
-        <v>81.0972462172309</v>
+        <v>86.64485015354049</v>
       </c>
       <c r="P34" t="n">
-        <v>69.39270412104702</v>
+        <v>74.13963766675468</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.04391142956737</v>
+        <v>51.3304421638964</v>
       </c>
       <c r="R34" t="n">
-        <v>25.79797914782761</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S34" t="n">
-        <v>9.998933689119598</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T34" t="n">
-        <v>2.451486089664169</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03343639702349134</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.279081804507766</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H35" t="n">
-        <v>13.09939653041517</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I35" t="n">
-        <v>49.31180126828571</v>
+        <v>52.6850643022694</v>
       </c>
       <c r="J35" t="n">
-        <v>108.5604693053411</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K35" t="n">
-        <v>162.7040020901549</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L35" t="n">
-        <v>201.8487018648595</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M35" t="n">
-        <v>224.5955729057745</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N35" t="n">
-        <v>228.2297640828322</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O35" t="n">
-        <v>215.5108943892581</v>
+        <v>230.253307255275</v>
       </c>
       <c r="P35" t="n">
-        <v>183.9335623404726</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q35" t="n">
-        <v>138.1264452165381</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R35" t="n">
-        <v>80.34712240241106</v>
+        <v>85.84341276123286</v>
       </c>
       <c r="S35" t="n">
-        <v>29.14707662022075</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T35" t="n">
-        <v>5.59918059923275</v>
+        <v>5.982202684214621</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.684369099459038</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H36" t="n">
-        <v>6.609564723722816</v>
+        <v>7.061703963819811</v>
       </c>
       <c r="I36" t="n">
-        <v>23.56270802962039</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J36" t="n">
-        <v>64.65787180459272</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K36" t="n">
-        <v>110.5106014683483</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L36" t="n">
-        <v>148.5951415294723</v>
+        <v>158.7600611847864</v>
       </c>
       <c r="M36" t="n">
         <v>173.4035213848624</v>
@@ -33751,25 +33751,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O36" t="n">
-        <v>162.8288181506773</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P36" t="n">
-        <v>130.6844818081035</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.35911522217475</v>
+        <v>93.33507364351125</v>
       </c>
       <c r="R36" t="n">
-        <v>42.49091654360591</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S36" t="n">
-        <v>12.7118558605659</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T36" t="n">
-        <v>2.758487729837086</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04810425043473987</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H37" t="n">
-        <v>5.101177437641616</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I37" t="n">
-        <v>17.25428932895548</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J37" t="n">
-        <v>40.56427089216648</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K37" t="n">
-        <v>66.65955792746399</v>
+        <v>71.21952566003645</v>
       </c>
       <c r="L37" t="n">
-        <v>85.30128406461242</v>
+        <v>91.13647282036281</v>
       </c>
       <c r="M37" t="n">
-        <v>89.93824392357291</v>
+        <v>96.09063231267675</v>
       </c>
       <c r="N37" t="n">
-        <v>87.79971350492977</v>
+        <v>93.80581184940492</v>
       </c>
       <c r="O37" t="n">
-        <v>81.0972462172309</v>
+        <v>86.64485015354049</v>
       </c>
       <c r="P37" t="n">
-        <v>69.39270412104702</v>
+        <v>74.13963766675468</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.04391142956737</v>
+        <v>51.3304421638964</v>
       </c>
       <c r="R37" t="n">
-        <v>25.79797914782761</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S37" t="n">
-        <v>9.998933689119598</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T37" t="n">
-        <v>2.451486089664169</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03343639702349134</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.279081804507766</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H38" t="n">
-        <v>13.09939653041517</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I38" t="n">
-        <v>49.31180126828571</v>
+        <v>52.6850643022694</v>
       </c>
       <c r="J38" t="n">
-        <v>108.5604693053411</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K38" t="n">
-        <v>162.7040020901549</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L38" t="n">
-        <v>201.8487018648595</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M38" t="n">
-        <v>224.5955729057745</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N38" t="n">
-        <v>228.2297640828322</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O38" t="n">
-        <v>215.5108943892581</v>
+        <v>230.253307255275</v>
       </c>
       <c r="P38" t="n">
-        <v>183.9335623404726</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.1264452165381</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R38" t="n">
-        <v>80.34712240241106</v>
+        <v>85.84341276123286</v>
       </c>
       <c r="S38" t="n">
-        <v>29.14707662022075</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T38" t="n">
-        <v>5.59918059923275</v>
+        <v>5.982202684214621</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.684369099459038</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H39" t="n">
-        <v>6.609564723722816</v>
+        <v>7.061703963819811</v>
       </c>
       <c r="I39" t="n">
-        <v>23.56270802962039</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J39" t="n">
-        <v>64.65787180459272</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K39" t="n">
-        <v>110.5106014683483</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L39" t="n">
-        <v>148.5951415294723</v>
+        <v>158.7600611847864</v>
       </c>
       <c r="M39" t="n">
         <v>173.4035213848624</v>
@@ -33988,25 +33988,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O39" t="n">
-        <v>162.8288181506773</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P39" t="n">
-        <v>130.6844818081035</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.35911522217475</v>
+        <v>93.33507364351125</v>
       </c>
       <c r="R39" t="n">
-        <v>42.49091654360591</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S39" t="n">
-        <v>12.7118558605659</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T39" t="n">
-        <v>2.758487729837086</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04810425043473987</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H40" t="n">
-        <v>5.101177437641616</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I40" t="n">
-        <v>17.25428932895548</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J40" t="n">
-        <v>40.56427089216648</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K40" t="n">
-        <v>66.65955792746399</v>
+        <v>71.21952566003645</v>
       </c>
       <c r="L40" t="n">
-        <v>85.30128406461242</v>
+        <v>91.13647282036281</v>
       </c>
       <c r="M40" t="n">
-        <v>89.93824392357291</v>
+        <v>96.09063231267675</v>
       </c>
       <c r="N40" t="n">
-        <v>87.79971350492977</v>
+        <v>93.80581184940492</v>
       </c>
       <c r="O40" t="n">
-        <v>81.0972462172309</v>
+        <v>86.64485015354049</v>
       </c>
       <c r="P40" t="n">
-        <v>69.39270412104702</v>
+        <v>74.13963766675468</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.04391142956737</v>
+        <v>51.3304421638964</v>
       </c>
       <c r="R40" t="n">
-        <v>25.79797914782761</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S40" t="n">
-        <v>9.998933689119598</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T40" t="n">
-        <v>2.451486089664169</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03343639702349134</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.279081804507766</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H41" t="n">
-        <v>13.09939653041517</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I41" t="n">
-        <v>49.31180126828571</v>
+        <v>52.6850643022694</v>
       </c>
       <c r="J41" t="n">
-        <v>108.5604693053411</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K41" t="n">
-        <v>162.7040020901549</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L41" t="n">
-        <v>201.8487018648595</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M41" t="n">
-        <v>224.5955729057745</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N41" t="n">
-        <v>228.2297640828322</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O41" t="n">
-        <v>215.5108943892581</v>
+        <v>230.253307255275</v>
       </c>
       <c r="P41" t="n">
-        <v>183.9335623404725</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.1264452165381</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R41" t="n">
-        <v>80.34712240241105</v>
+        <v>85.84341276123286</v>
       </c>
       <c r="S41" t="n">
-        <v>29.14707662022075</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T41" t="n">
-        <v>5.599180599232749</v>
+        <v>5.982202684214621</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6843690994590379</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H42" t="n">
-        <v>6.609564723722816</v>
+        <v>7.061703963819811</v>
       </c>
       <c r="I42" t="n">
-        <v>23.56270802962039</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J42" t="n">
-        <v>64.65787180459272</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K42" t="n">
-        <v>110.5106014683483</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L42" t="n">
-        <v>148.5951415294723</v>
+        <v>158.7600611847864</v>
       </c>
       <c r="M42" t="n">
         <v>173.4035213848624</v>
@@ -34225,25 +34225,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O42" t="n">
-        <v>162.8288181506773</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P42" t="n">
-        <v>130.6844818081035</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.35911522217475</v>
+        <v>93.33507364351125</v>
       </c>
       <c r="R42" t="n">
-        <v>42.4909165436059</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S42" t="n">
-        <v>12.7118558605659</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T42" t="n">
-        <v>2.758487729837086</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04810425043473987</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5737520635384226</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H43" t="n">
-        <v>5.101177437641615</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I43" t="n">
-        <v>17.25428932895548</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J43" t="n">
-        <v>40.56427089216648</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K43" t="n">
-        <v>66.65955792746399</v>
+        <v>71.21952566003645</v>
       </c>
       <c r="L43" t="n">
-        <v>85.3012840646124</v>
+        <v>91.13647282036281</v>
       </c>
       <c r="M43" t="n">
-        <v>89.9382439235729</v>
+        <v>96.09063231267675</v>
       </c>
       <c r="N43" t="n">
-        <v>87.79971350492977</v>
+        <v>93.80581184940492</v>
       </c>
       <c r="O43" t="n">
-        <v>81.09724621723089</v>
+        <v>86.64485015354049</v>
       </c>
       <c r="P43" t="n">
-        <v>69.39270412104702</v>
+        <v>74.13963766675468</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.04391142956737</v>
+        <v>51.3304421638964</v>
       </c>
       <c r="R43" t="n">
-        <v>25.79797914782761</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S43" t="n">
-        <v>9.998933689119598</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T43" t="n">
-        <v>2.451486089664169</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03343639702349134</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.455036206637333</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H44" t="n">
-        <v>14.90138955122459</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I44" t="n">
-        <v>56.09528335638583</v>
+        <v>52.6850643022694</v>
       </c>
       <c r="J44" t="n">
-        <v>123.4943792430854</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K44" t="n">
-        <v>185.0860618700438</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L44" t="n">
-        <v>229.6156261789211</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M44" t="n">
-        <v>255.4916263187078</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N44" t="n">
-        <v>259.6257479408162</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O44" t="n">
-        <v>245.1572316610661</v>
+        <v>230.253307255275</v>
       </c>
       <c r="P44" t="n">
-        <v>209.2360253097069</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q44" t="n">
-        <v>157.1275411595074</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R44" t="n">
-        <v>91.39991811518244</v>
+        <v>85.84341276123286</v>
       </c>
       <c r="S44" t="n">
-        <v>33.15663755874826</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T44" t="n">
-        <v>6.369420994554928</v>
+        <v>5.982202684214621</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1164028965309866</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7785130043343056</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H45" t="n">
-        <v>7.518796647123428</v>
+        <v>7.061703963819811</v>
       </c>
       <c r="I45" t="n">
-        <v>26.80406615800132</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J45" t="n">
-        <v>73.55240625598807</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K45" t="n">
-        <v>125.7127775463865</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L45" t="n">
-        <v>169.0363433314465</v>
+        <v>158.7600611847864</v>
       </c>
       <c r="M45" t="n">
         <v>173.4035213848624</v>
@@ -34465,22 +34465,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P45" t="n">
-        <v>148.6618385206447</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.37650209712999</v>
+        <v>93.33507364351125</v>
       </c>
       <c r="R45" t="n">
-        <v>48.33609688314225</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S45" t="n">
-        <v>14.46053760243764</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T45" t="n">
-        <v>3.137953732382573</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0512179608114675</v>
+        <v>0.04810425043473987</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6526791508871155</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H46" t="n">
-        <v>5.802910996069087</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I46" t="n">
-        <v>19.62784210122345</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J46" t="n">
-        <v>46.14441596771907</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K46" t="n">
-        <v>75.82945043943032</v>
+        <v>71.21952566003645</v>
       </c>
       <c r="L46" t="n">
-        <v>97.03558939643536</v>
+        <v>91.13647282036281</v>
       </c>
       <c r="M46" t="n">
-        <v>102.3104236249685</v>
+        <v>96.09063231267675</v>
       </c>
       <c r="N46" t="n">
-        <v>99.87771042620749</v>
+        <v>93.80581184940492</v>
       </c>
       <c r="O46" t="n">
-        <v>92.2532312544807</v>
+        <v>86.64485015354049</v>
       </c>
       <c r="P46" t="n">
-        <v>78.93857657638347</v>
+        <v>74.13963766675468</v>
       </c>
       <c r="Q46" t="n">
-        <v>54.65297871655656</v>
+        <v>51.3304421638964</v>
       </c>
       <c r="R46" t="n">
-        <v>29.34682800261521</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S46" t="n">
-        <v>11.37441756591454</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T46" t="n">
-        <v>2.788720008335857</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03560068095747907</v>
+        <v>0.03343639702349134</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
